--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2013.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2013.xlsx
@@ -3,340 +3,343 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
-  <si>
-    <t>0191
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0191
 Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
   <si>
-    <t>0192
+    <t xml:space="preserve">0192
 Pecuária, inclusive o apoio à pecuária</t>
   </si>
   <si>
-    <t>0280
+    <t xml:space="preserve">0280
 Produção florestal; pesca e aquicultura</t>
   </si>
   <si>
-    <t>0580
+    <t xml:space="preserve">0580
 Extração de carvão mineral e de minerais não-metálicos</t>
   </si>
   <si>
-    <t>0680
+    <t xml:space="preserve">0680
 Extração de petróleo e gás, inclusive as atividades de apoio</t>
   </si>
   <si>
-    <t>0791
+    <t xml:space="preserve">0791
 Extração de minério de ferro, inclusive beneficiamentos e a aglomeração</t>
   </si>
   <si>
-    <t>0792
+    <t xml:space="preserve">0792
 Extração de minerais metálicos não-ferrosos, inclusive beneficiamentos</t>
   </si>
   <si>
-    <t>1091
+    <t xml:space="preserve">1091
 Abate e produtos de carne, inclusive os produtos do laticínio e da pesca</t>
   </si>
   <si>
-    <t>1092
+    <t xml:space="preserve">1092
 Fabricação e refino de açúcar</t>
   </si>
   <si>
-    <t>1093
+    <t xml:space="preserve">1093
 Outros produtos alimentares</t>
   </si>
   <si>
-    <t>1100
+    <t xml:space="preserve">1100
 Fabricação de bebidas</t>
   </si>
   <si>
-    <t>1200
+    <t xml:space="preserve">1200
 Fabricação de produtos do fumo</t>
   </si>
   <si>
-    <t>1300
+    <t xml:space="preserve">1300
 Fabricação de produtos têxteis</t>
   </si>
   <si>
-    <t>1400
+    <t xml:space="preserve">1400
 Confecção de artefatos do vestuário e acessórios</t>
   </si>
   <si>
-    <t>1500
+    <t xml:space="preserve">1500
 Fabricação de calçados e de artefatos de couro</t>
   </si>
   <si>
-    <t>1600
+    <t xml:space="preserve">1600
 Fabricação de produtos da madeira</t>
   </si>
   <si>
-    <t>1700
+    <t xml:space="preserve">1700
 Fabricação de celulose, papel e produtos de papel</t>
   </si>
   <si>
-    <t>1800
+    <t xml:space="preserve">1800
 Impressão e reprodução de gravações</t>
   </si>
   <si>
-    <t>1991
+    <t xml:space="preserve">1991
 Refino de petróleo e coquerias</t>
   </si>
   <si>
-    <t>1992
+    <t xml:space="preserve">1992
 Fabricação de biocombustíveis</t>
   </si>
   <si>
-    <t>2091
+    <t xml:space="preserve">2091
 Fabricação de químicos orgânicos e inorgânicos, resinas e elastômeros</t>
   </si>
   <si>
-    <t>2092
+    <t xml:space="preserve">2092
 Fabricação de defensivos, desinfestantes, tintas e químicos diversos</t>
   </si>
   <si>
-    <t>2093
+    <t xml:space="preserve">2093
 Fabricação de produtos de limpeza, cosméticos/perfumaria e higiene pessoal</t>
   </si>
   <si>
-    <t>2100
+    <t xml:space="preserve">2100
 Fabricação de produtos farmoquímicos e farmacêuticos</t>
   </si>
   <si>
-    <t>2200
+    <t xml:space="preserve">2200
 Fabricação de produtos de borracha e de material plástico</t>
   </si>
   <si>
-    <t>2300
+    <t xml:space="preserve">2300
 Fabricação de produtos de minerais não-metálicos</t>
   </si>
   <si>
-    <t>2491
+    <t xml:space="preserve">2491
 Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</t>
   </si>
   <si>
-    <t>2492
+    <t xml:space="preserve">2492
 Metalurgia de metais não-ferrosos e a fundição de metais</t>
   </si>
   <si>
-    <t>2500
+    <t xml:space="preserve">2500
 Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
   </si>
   <si>
-    <t>2600
+    <t xml:space="preserve">2600
 Fabricação de equipamentos de informática, produtos eletrônicos e ópticos</t>
   </si>
   <si>
-    <t>2700
+    <t xml:space="preserve">2700
 Fabricação de máquinas e equipamentos elétricos</t>
   </si>
   <si>
-    <t>2800
+    <t xml:space="preserve">2800
 Fabricação de máquinas e equipamentos mecânicos</t>
   </si>
   <si>
-    <t>2991
+    <t xml:space="preserve">2991
 Fabricação de automóveis, caminhões e ônibus, exceto peças</t>
   </si>
   <si>
-    <t>2992
+    <t xml:space="preserve">2992
 Fabricação de peças e acessórios para veículos automotores</t>
   </si>
   <si>
-    <t>3000
+    <t xml:space="preserve">3000
 Fabricação de outros equipamentos de transporte, exceto veículos automotores</t>
   </si>
   <si>
-    <t>3180
+    <t xml:space="preserve">3180
 Fabricação de móveis e de produtos de indústrias diversas</t>
   </si>
   <si>
-    <t>3300
+    <t xml:space="preserve">3300
 Manutenção, reparação e instalação de máquinas e equipamentos</t>
   </si>
   <si>
-    <t>3500
+    <t xml:space="preserve">3500
 Energia elétrica, gás natural e outras utilidades</t>
   </si>
   <si>
-    <t>3680
+    <t xml:space="preserve">3680
 Água, esgoto e gestão de resíduos</t>
   </si>
   <si>
-    <t>4180
+    <t xml:space="preserve">4180
 Construção</t>
   </si>
   <si>
-    <t>4500
+    <t xml:space="preserve">4500
 Comércio e reparação de veículos automotores e motocicletas</t>
   </si>
   <si>
-    <t>4680
+    <t xml:space="preserve">4680
 Comércio por atacado e a varejo, exceto veículos automotores</t>
   </si>
   <si>
-    <t>4900
+    <t xml:space="preserve">4900
 Transporte terrestre</t>
   </si>
   <si>
-    <t>5000
+    <t xml:space="preserve">5000
 Transporte aquaviário</t>
   </si>
   <si>
-    <t>5100
+    <t xml:space="preserve">5100
 Transporte aéreo</t>
   </si>
   <si>
-    <t>5280
+    <t xml:space="preserve">5280
 Armazenamento, atividades auxiliares dos transportes e correio</t>
   </si>
   <si>
-    <t>5500
+    <t xml:space="preserve">5500
 Alojamento</t>
   </si>
   <si>
-    <t>5600
+    <t xml:space="preserve">5600
 Alimentação</t>
   </si>
   <si>
-    <t>5800
+    <t xml:space="preserve">5800
 Edição e edição integrada à impressão</t>
   </si>
   <si>
-    <t>5980
+    <t xml:space="preserve">5980
 Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</t>
   </si>
   <si>
-    <t>6100
+    <t xml:space="preserve">6100
 Telecomunicações</t>
   </si>
   <si>
-    <t>6280
+    <t xml:space="preserve">6280
 Desenvolvimento de sistemas e outros serviços de informação</t>
   </si>
   <si>
-    <t>6480
+    <t xml:space="preserve">6480
 Intermediação financeira, seguros e previdência complementar</t>
   </si>
   <si>
-    <t>6800
+    <t xml:space="preserve">6800
 Atividades imobiliárias</t>
   </si>
   <si>
-    <t>6980
+    <t xml:space="preserve">6980
 Atividades jurídicas, contábeis, consultoria e sedes de empresas</t>
   </si>
   <si>
-    <t>7180
+    <t xml:space="preserve">7180
 Serviços de arquitetura, engenharia, testes/análises técnicas e P &amp; D</t>
   </si>
   <si>
-    <t>7380
+    <t xml:space="preserve">7380
 Outras atividades profissionais, científicas e técnicas</t>
   </si>
   <si>
-    <t>7700
+    <t xml:space="preserve">7700
 Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</t>
   </si>
   <si>
-    <t>7880
+    <t xml:space="preserve">7880
 Outras atividades administrativas e serviços complementares</t>
   </si>
   <si>
-    <t>8000
+    <t xml:space="preserve">8000
 Atividades de vigilância, segurança e investigação</t>
   </si>
   <si>
-    <t>8400
+    <t xml:space="preserve">8400
 Administração pública, defesa e seguridade social</t>
   </si>
   <si>
-    <t>8591
+    <t xml:space="preserve">8591
 Educação pública</t>
   </si>
   <si>
-    <t>8592
+    <t xml:space="preserve">8592
 Educação privada</t>
   </si>
   <si>
-    <t>8691
+    <t xml:space="preserve">8691
 Saúde pública</t>
   </si>
   <si>
-    <t>8692
+    <t xml:space="preserve">8692
 Saúde privada</t>
   </si>
   <si>
-    <t>9080
+    <t xml:space="preserve">9080
 Atividades artísticas, criativas e de espetáculos</t>
   </si>
   <si>
-    <t>9480
+    <t xml:space="preserve">9480
 Organizações associativas e outros serviços pessoais</t>
   </si>
   <si>
-    <t>9700
+    <t xml:space="preserve">9700
 Serviços domésticos</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t xml:space="preserve">Valor adicionado bruto ( PIB )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remunerações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribuições sociais efetivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previdência oficial /FGTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previdência privada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribuições sociais imputadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente operacional bruto e rendimento misto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendimento misto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente operacional bruto (EOB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros impostos sobre a produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros subsídios à produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor da produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fator trabalho (ocupações)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,7 +350,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -365,3151 +368,3435 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" t="n">
-        <v>157113.0</v>
+        <v>157113</v>
       </c>
       <c r="C2" t="n">
-        <v>61446.0</v>
+        <v>61446</v>
       </c>
       <c r="D2" t="n">
-        <v>21731.0</v>
+        <v>21731</v>
       </c>
       <c r="E2" t="n">
-        <v>8866.0</v>
+        <v>8866</v>
       </c>
       <c r="F2" t="n">
-        <v>124623.0</v>
+        <v>124623</v>
       </c>
       <c r="G2" t="n">
-        <v>53671.0</v>
+        <v>53671</v>
       </c>
       <c r="H2" t="n">
-        <v>2274.0</v>
+        <v>2274</v>
       </c>
       <c r="I2" t="n">
-        <v>31035.0</v>
+        <v>31035</v>
       </c>
       <c r="J2" t="n">
-        <v>8479.0</v>
+        <v>8479</v>
       </c>
       <c r="K2" t="n">
-        <v>44776.0</v>
+        <v>44776</v>
       </c>
       <c r="L2" t="n">
-        <v>19106.0</v>
+        <v>19106</v>
       </c>
       <c r="M2" t="n">
-        <v>4757.0</v>
+        <v>4757</v>
       </c>
       <c r="N2" t="n">
-        <v>13652.0</v>
+        <v>13652</v>
       </c>
       <c r="O2" t="n">
-        <v>24872.0</v>
+        <v>24872</v>
       </c>
       <c r="P2" t="n">
-        <v>13452.0</v>
+        <v>13452</v>
       </c>
       <c r="Q2" t="n">
-        <v>10169.0</v>
+        <v>10169</v>
       </c>
       <c r="R2" t="n">
-        <v>17282.0</v>
+        <v>17282</v>
       </c>
       <c r="S2" t="n">
-        <v>9575.0</v>
+        <v>9575</v>
       </c>
       <c r="T2" t="n">
-        <v>-28223.0</v>
+        <v>-28223</v>
       </c>
       <c r="U2" t="n">
-        <v>6201.0</v>
+        <v>6201</v>
       </c>
       <c r="V2" t="n">
-        <v>15667.0</v>
+        <v>15667</v>
       </c>
       <c r="W2" t="n">
-        <v>12980.0</v>
+        <v>12980</v>
       </c>
       <c r="X2" t="n">
-        <v>8160.0</v>
+        <v>8160</v>
       </c>
       <c r="Y2" t="n">
-        <v>22533.0</v>
+        <v>22533</v>
       </c>
       <c r="Z2" t="n">
-        <v>25724.0</v>
+        <v>25724</v>
       </c>
       <c r="AA2" t="n">
-        <v>29101.0</v>
+        <v>29101</v>
       </c>
       <c r="AB2" t="n">
-        <v>24848.0</v>
+        <v>24848</v>
       </c>
       <c r="AC2" t="n">
-        <v>9202.0</v>
+        <v>9202</v>
       </c>
       <c r="AD2" t="n">
-        <v>34733.0</v>
+        <v>34733</v>
       </c>
       <c r="AE2" t="n">
-        <v>17941.0</v>
+        <v>17941</v>
       </c>
       <c r="AF2" t="n">
-        <v>18271.0</v>
+        <v>18271</v>
       </c>
       <c r="AG2" t="n">
-        <v>38768.0</v>
+        <v>38768</v>
       </c>
       <c r="AH2" t="n">
-        <v>35485.0</v>
+        <v>35485</v>
       </c>
       <c r="AI2" t="n">
-        <v>25612.0</v>
+        <v>25612</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11836.0</v>
+        <v>11836</v>
       </c>
       <c r="AK2" t="n">
-        <v>30673.0</v>
+        <v>30673</v>
       </c>
       <c r="AL2" t="n">
-        <v>22066.0</v>
+        <v>22066</v>
       </c>
       <c r="AM2" t="n">
-        <v>57032.0</v>
+        <v>57032</v>
       </c>
       <c r="AN2" t="n">
-        <v>35786.0</v>
+        <v>35786</v>
       </c>
       <c r="AO2" t="n">
-        <v>290641.0</v>
+        <v>290641</v>
       </c>
       <c r="AP2" t="n">
-        <v>84636.0</v>
+        <v>84636</v>
       </c>
       <c r="AQ2" t="n">
-        <v>529451.0</v>
+        <v>529451</v>
       </c>
       <c r="AR2" t="n">
-        <v>130316.0</v>
+        <v>130316</v>
       </c>
       <c r="AS2" t="n">
-        <v>6023.0</v>
+        <v>6023</v>
       </c>
       <c r="AT2" t="n">
-        <v>8412.0</v>
+        <v>8412</v>
       </c>
       <c r="AU2" t="n">
-        <v>58670.0</v>
+        <v>58670</v>
       </c>
       <c r="AV2" t="n">
-        <v>12445.0</v>
+        <v>12445</v>
       </c>
       <c r="AW2" t="n">
-        <v>95622.0</v>
+        <v>95622</v>
       </c>
       <c r="AX2" t="n">
-        <v>9218.0</v>
+        <v>9218</v>
       </c>
       <c r="AY2" t="n">
-        <v>17347.0</v>
+        <v>17347</v>
       </c>
       <c r="AZ2" t="n">
-        <v>62629.0</v>
+        <v>62629</v>
       </c>
       <c r="BA2" t="n">
-        <v>68315.0</v>
+        <v>68315</v>
       </c>
       <c r="BB2" t="n">
-        <v>272571.0</v>
+        <v>272571</v>
       </c>
       <c r="BC2" t="n">
-        <v>419202.0</v>
+        <v>419202</v>
       </c>
       <c r="BD2" t="n">
-        <v>109657.0</v>
+        <v>109657</v>
       </c>
       <c r="BE2" t="n">
-        <v>43526.0</v>
+        <v>43526</v>
       </c>
       <c r="BF2" t="n">
-        <v>25762.0</v>
+        <v>25762</v>
       </c>
       <c r="BG2" t="n">
-        <v>30986.0</v>
+        <v>30986</v>
       </c>
       <c r="BH2" t="n">
-        <v>127086.0</v>
+        <v>127086</v>
       </c>
       <c r="BI2" t="n">
-        <v>27194.0</v>
+        <v>27194</v>
       </c>
       <c r="BJ2" t="n">
-        <v>447604.0</v>
+        <v>447604</v>
       </c>
       <c r="BK2" t="n">
-        <v>201645.0</v>
+        <v>201645</v>
       </c>
       <c r="BL2" t="n">
-        <v>56703.0</v>
+        <v>56703</v>
       </c>
       <c r="BM2" t="n">
-        <v>96938.0</v>
+        <v>96938</v>
       </c>
       <c r="BN2" t="n">
-        <v>104106.0</v>
+        <v>104106</v>
       </c>
       <c r="BO2" t="n">
-        <v>17629.0</v>
+        <v>17629</v>
       </c>
       <c r="BP2" t="n">
-        <v>64495.0</v>
+        <v>64495</v>
       </c>
       <c r="BQ2" t="n">
-        <v>53656.0</v>
+        <v>53656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" t="n">
-        <v>23857.0</v>
+        <v>23857</v>
       </c>
       <c r="C3" t="n">
-        <v>19173.0</v>
+        <v>19173</v>
       </c>
       <c r="D3" t="n">
-        <v>2164.0</v>
+        <v>2164</v>
       </c>
       <c r="E3" t="n">
-        <v>3875.0</v>
+        <v>3875</v>
       </c>
       <c r="F3" t="n">
-        <v>19150.0</v>
+        <v>19150</v>
       </c>
       <c r="G3" t="n">
-        <v>6806.0</v>
+        <v>6806</v>
       </c>
       <c r="H3" t="n">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="I3" t="n">
-        <v>20075.0</v>
+        <v>20075</v>
       </c>
       <c r="J3" t="n">
-        <v>9203.0</v>
+        <v>9203</v>
       </c>
       <c r="K3" t="n">
-        <v>25733.0</v>
+        <v>25733</v>
       </c>
       <c r="L3" t="n">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="M3" t="n">
-        <v>1336.0</v>
+        <v>1336</v>
       </c>
       <c r="N3" t="n">
-        <v>9669.0</v>
+        <v>9669</v>
       </c>
       <c r="O3" t="n">
-        <v>17221.0</v>
+        <v>17221</v>
       </c>
       <c r="P3" t="n">
-        <v>9382.0</v>
+        <v>9382</v>
       </c>
       <c r="Q3" t="n">
-        <v>6028.0</v>
+        <v>6028</v>
       </c>
       <c r="R3" t="n">
-        <v>9625.0</v>
+        <v>9625</v>
       </c>
       <c r="S3" t="n">
-        <v>5414.0</v>
+        <v>5414</v>
       </c>
       <c r="T3" t="n">
-        <v>6803.0</v>
+        <v>6803</v>
       </c>
       <c r="U3" t="n">
-        <v>4311.0</v>
+        <v>4311</v>
       </c>
       <c r="V3" t="n">
-        <v>9282.0</v>
+        <v>9282</v>
       </c>
       <c r="W3" t="n">
-        <v>8124.0</v>
+        <v>8124</v>
       </c>
       <c r="X3" t="n">
-        <v>4773.0</v>
+        <v>4773</v>
       </c>
       <c r="Y3" t="n">
-        <v>8752.0</v>
+        <v>8752</v>
       </c>
       <c r="Z3" t="n">
-        <v>19286.0</v>
+        <v>19286</v>
       </c>
       <c r="AA3" t="n">
-        <v>17654.0</v>
+        <v>17654</v>
       </c>
       <c r="AB3" t="n">
-        <v>12282.0</v>
+        <v>12282</v>
       </c>
       <c r="AC3" t="n">
-        <v>6144.0</v>
+        <v>6144</v>
       </c>
       <c r="AD3" t="n">
-        <v>22128.0</v>
+        <v>22128</v>
       </c>
       <c r="AE3" t="n">
-        <v>10325.0</v>
+        <v>10325</v>
       </c>
       <c r="AF3" t="n">
-        <v>13337.0</v>
+        <v>13337</v>
       </c>
       <c r="AG3" t="n">
-        <v>27595.0</v>
+        <v>27595</v>
       </c>
       <c r="AH3" t="n">
-        <v>19759.0</v>
+        <v>19759</v>
       </c>
       <c r="AI3" t="n">
-        <v>20145.0</v>
+        <v>20145</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8568.0</v>
+        <v>8568</v>
       </c>
       <c r="AK3" t="n">
-        <v>14413.0</v>
+        <v>14413</v>
       </c>
       <c r="AL3" t="n">
-        <v>11143.0</v>
+        <v>11143</v>
       </c>
       <c r="AM3" t="n">
-        <v>14719.0</v>
+        <v>14719</v>
       </c>
       <c r="AN3" t="n">
-        <v>14030.0</v>
+        <v>14030</v>
       </c>
       <c r="AO3" t="n">
-        <v>128751.0</v>
+        <v>128751</v>
       </c>
       <c r="AP3" t="n">
-        <v>38918.0</v>
+        <v>38918</v>
       </c>
       <c r="AQ3" t="n">
-        <v>249328.0</v>
+        <v>249328</v>
       </c>
       <c r="AR3" t="n">
-        <v>64546.0</v>
+        <v>64546</v>
       </c>
       <c r="AS3" t="n">
-        <v>3725.0</v>
+        <v>3725</v>
       </c>
       <c r="AT3" t="n">
-        <v>6421.0</v>
+        <v>6421</v>
       </c>
       <c r="AU3" t="n">
-        <v>35398.0</v>
+        <v>35398</v>
       </c>
       <c r="AV3" t="n">
-        <v>7468.0</v>
+        <v>7468</v>
       </c>
       <c r="AW3" t="n">
-        <v>38349.0</v>
+        <v>38349</v>
       </c>
       <c r="AX3" t="n">
-        <v>6659.0</v>
+        <v>6659</v>
       </c>
       <c r="AY3" t="n">
-        <v>9536.0</v>
+        <v>9536</v>
       </c>
       <c r="AZ3" t="n">
-        <v>16207.0</v>
+        <v>16207</v>
       </c>
       <c r="BA3" t="n">
-        <v>34306.0</v>
+        <v>34306</v>
       </c>
       <c r="BB3" t="n">
-        <v>119723.0</v>
+        <v>119723</v>
       </c>
       <c r="BC3" t="n">
-        <v>5678.0</v>
+        <v>5678</v>
       </c>
       <c r="BD3" t="n">
-        <v>45611.0</v>
+        <v>45611</v>
       </c>
       <c r="BE3" t="n">
-        <v>20908.0</v>
+        <v>20908</v>
       </c>
       <c r="BF3" t="n">
-        <v>10169.0</v>
+        <v>10169</v>
       </c>
       <c r="BG3" t="n">
-        <v>9453.0</v>
+        <v>9453</v>
       </c>
       <c r="BH3" t="n">
-        <v>83216.0</v>
+        <v>83216</v>
       </c>
       <c r="BI3" t="n">
-        <v>22918.0</v>
+        <v>22918</v>
       </c>
       <c r="BJ3" t="n">
-        <v>390700.0</v>
+        <v>390700</v>
       </c>
       <c r="BK3" t="n">
-        <v>192717.0</v>
+        <v>192717</v>
       </c>
       <c r="BL3" t="n">
-        <v>49724.0</v>
+        <v>49724</v>
       </c>
       <c r="BM3" t="n">
-        <v>92562.0</v>
+        <v>92562</v>
       </c>
       <c r="BN3" t="n">
-        <v>49995.0</v>
+        <v>49995</v>
       </c>
       <c r="BO3" t="n">
-        <v>9169.0</v>
+        <v>9169</v>
       </c>
       <c r="BP3" t="n">
-        <v>38349.0</v>
+        <v>38349</v>
       </c>
       <c r="BQ3" t="n">
-        <v>53656.0</v>
+        <v>53656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" t="n">
-        <v>20433.0</v>
+        <v>20433</v>
       </c>
       <c r="C4" t="n">
-        <v>16651.0</v>
+        <v>16651</v>
       </c>
       <c r="D4" t="n">
-        <v>1827.0</v>
+        <v>1827</v>
       </c>
       <c r="E4" t="n">
-        <v>3048.0</v>
+        <v>3048</v>
       </c>
       <c r="F4" t="n">
-        <v>13944.0</v>
+        <v>13944</v>
       </c>
       <c r="G4" t="n">
-        <v>4997.0</v>
+        <v>4997</v>
       </c>
       <c r="H4" t="n">
-        <v>1589.0</v>
+        <v>1589</v>
       </c>
       <c r="I4" t="n">
-        <v>15528.0</v>
+        <v>15528</v>
       </c>
       <c r="J4" t="n">
-        <v>6614.0</v>
+        <v>6614</v>
       </c>
       <c r="K4" t="n">
-        <v>20026.0</v>
+        <v>20026</v>
       </c>
       <c r="L4" t="n">
-        <v>5507.0</v>
+        <v>5507</v>
       </c>
       <c r="M4" t="n">
-        <v>1008.0</v>
+        <v>1008</v>
       </c>
       <c r="N4" t="n">
-        <v>7801.0</v>
+        <v>7801</v>
       </c>
       <c r="O4" t="n">
-        <v>13922.0</v>
+        <v>13922</v>
       </c>
       <c r="P4" t="n">
-        <v>7874.0</v>
+        <v>7874</v>
       </c>
       <c r="Q4" t="n">
-        <v>4807.0</v>
+        <v>4807</v>
       </c>
       <c r="R4" t="n">
-        <v>7507.0</v>
+        <v>7507</v>
       </c>
       <c r="S4" t="n">
-        <v>4236.0</v>
+        <v>4236</v>
       </c>
       <c r="T4" t="n">
-        <v>4596.0</v>
+        <v>4596</v>
       </c>
       <c r="U4" t="n">
-        <v>3133.0</v>
+        <v>3133</v>
       </c>
       <c r="V4" t="n">
-        <v>6823.0</v>
+        <v>6823</v>
       </c>
       <c r="W4" t="n">
-        <v>6044.0</v>
+        <v>6044</v>
       </c>
       <c r="X4" t="n">
-        <v>3653.0</v>
+        <v>3653</v>
       </c>
       <c r="Y4" t="n">
-        <v>6581.0</v>
+        <v>6581</v>
       </c>
       <c r="Z4" t="n">
-        <v>14903.0</v>
+        <v>14903</v>
       </c>
       <c r="AA4" t="n">
-        <v>14050.0</v>
+        <v>14050</v>
       </c>
       <c r="AB4" t="n">
-        <v>9342.0</v>
+        <v>9342</v>
       </c>
       <c r="AC4" t="n">
-        <v>4723.0</v>
+        <v>4723</v>
       </c>
       <c r="AD4" t="n">
-        <v>17414.0</v>
+        <v>17414</v>
       </c>
       <c r="AE4" t="n">
-        <v>8095.0</v>
+        <v>8095</v>
       </c>
       <c r="AF4" t="n">
-        <v>10495.0</v>
+        <v>10495</v>
       </c>
       <c r="AG4" t="n">
-        <v>21482.0</v>
+        <v>21482</v>
       </c>
       <c r="AH4" t="n">
-        <v>15010.0</v>
+        <v>15010</v>
       </c>
       <c r="AI4" t="n">
-        <v>15864.0</v>
+        <v>15864</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7091.0</v>
+        <v>7091</v>
       </c>
       <c r="AK4" t="n">
-        <v>11278.0</v>
+        <v>11278</v>
       </c>
       <c r="AL4" t="n">
-        <v>8976.0</v>
+        <v>8976</v>
       </c>
       <c r="AM4" t="n">
-        <v>10809.0</v>
+        <v>10809</v>
       </c>
       <c r="AN4" t="n">
-        <v>10796.0</v>
+        <v>10796</v>
       </c>
       <c r="AO4" t="n">
-        <v>103752.0</v>
+        <v>103752</v>
       </c>
       <c r="AP4" t="n">
-        <v>31173.0</v>
+        <v>31173</v>
       </c>
       <c r="AQ4" t="n">
-        <v>197892.0</v>
+        <v>197892</v>
       </c>
       <c r="AR4" t="n">
-        <v>52445.0</v>
+        <v>52445</v>
       </c>
       <c r="AS4" t="n">
-        <v>3164.0</v>
+        <v>3164</v>
       </c>
       <c r="AT4" t="n">
-        <v>5308.0</v>
+        <v>5308</v>
       </c>
       <c r="AU4" t="n">
-        <v>26978.0</v>
+        <v>26978</v>
       </c>
       <c r="AV4" t="n">
-        <v>6359.0</v>
+        <v>6359</v>
       </c>
       <c r="AW4" t="n">
-        <v>32146.0</v>
+        <v>32146</v>
       </c>
       <c r="AX4" t="n">
-        <v>5084.0</v>
+        <v>5084</v>
       </c>
       <c r="AY4" t="n">
-        <v>7263.0</v>
+        <v>7263</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12139.0</v>
+        <v>12139</v>
       </c>
       <c r="BA4" t="n">
-        <v>27336.0</v>
+        <v>27336</v>
       </c>
       <c r="BB4" t="n">
-        <v>90611.0</v>
+        <v>90611</v>
       </c>
       <c r="BC4" t="n">
-        <v>4365.0</v>
+        <v>4365</v>
       </c>
       <c r="BD4" t="n">
-        <v>35822.0</v>
+        <v>35822</v>
       </c>
       <c r="BE4" t="n">
-        <v>16456.0</v>
+        <v>16456</v>
       </c>
       <c r="BF4" t="n">
-        <v>8241.0</v>
+        <v>8241</v>
       </c>
       <c r="BG4" t="n">
-        <v>7522.0</v>
+        <v>7522</v>
       </c>
       <c r="BH4" t="n">
-        <v>66375.0</v>
+        <v>66375</v>
       </c>
       <c r="BI4" t="n">
-        <v>17719.0</v>
+        <v>17719</v>
       </c>
       <c r="BJ4" t="n">
-        <v>281204.0</v>
+        <v>281204</v>
       </c>
       <c r="BK4" t="n">
-        <v>163202.0</v>
+        <v>163202</v>
       </c>
       <c r="BL4" t="n">
-        <v>41396.0</v>
+        <v>41396</v>
       </c>
       <c r="BM4" t="n">
-        <v>74965.0</v>
+        <v>74965</v>
       </c>
       <c r="BN4" t="n">
-        <v>43260.0</v>
+        <v>43260</v>
       </c>
       <c r="BO4" t="n">
-        <v>7937.0</v>
+        <v>7937</v>
       </c>
       <c r="BP4" t="n">
-        <v>32790.0</v>
+        <v>32790</v>
       </c>
       <c r="BQ4" t="n">
-        <v>50829.0</v>
+        <v>50829</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="n">
-        <v>3424.0</v>
+        <v>3424</v>
       </c>
       <c r="C5" t="n">
-        <v>2522.0</v>
+        <v>2522</v>
       </c>
       <c r="D5" t="n">
-        <v>337.0</v>
+        <v>337</v>
       </c>
       <c r="E5" t="n">
-        <v>827.0</v>
+        <v>827</v>
       </c>
       <c r="F5" t="n">
-        <v>5206.0</v>
+        <v>5206</v>
       </c>
       <c r="G5" t="n">
-        <v>1809.0</v>
+        <v>1809</v>
       </c>
       <c r="H5" t="n">
-        <v>429.0</v>
+        <v>429</v>
       </c>
       <c r="I5" t="n">
-        <v>4547.0</v>
+        <v>4547</v>
       </c>
       <c r="J5" t="n">
-        <v>2589.0</v>
+        <v>2589</v>
       </c>
       <c r="K5" t="n">
-        <v>5707.0</v>
+        <v>5707</v>
       </c>
       <c r="L5" t="n">
-        <v>1744.0</v>
+        <v>1744</v>
       </c>
       <c r="M5" t="n">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="N5" t="n">
-        <v>1868.0</v>
+        <v>1868</v>
       </c>
       <c r="O5" t="n">
-        <v>3299.0</v>
+        <v>3299</v>
       </c>
       <c r="P5" t="n">
-        <v>1508.0</v>
+        <v>1508</v>
       </c>
       <c r="Q5" t="n">
-        <v>1221.0</v>
+        <v>1221</v>
       </c>
       <c r="R5" t="n">
-        <v>2118.0</v>
+        <v>2118</v>
       </c>
       <c r="S5" t="n">
-        <v>1178.0</v>
+        <v>1178</v>
       </c>
       <c r="T5" t="n">
-        <v>2207.0</v>
+        <v>2207</v>
       </c>
       <c r="U5" t="n">
-        <v>1178.0</v>
+        <v>1178</v>
       </c>
       <c r="V5" t="n">
-        <v>2459.0</v>
+        <v>2459</v>
       </c>
       <c r="W5" t="n">
-        <v>2080.0</v>
+        <v>2080</v>
       </c>
       <c r="X5" t="n">
-        <v>1120.0</v>
+        <v>1120</v>
       </c>
       <c r="Y5" t="n">
-        <v>2171.0</v>
+        <v>2171</v>
       </c>
       <c r="Z5" t="n">
-        <v>4383.0</v>
+        <v>4383</v>
       </c>
       <c r="AA5" t="n">
-        <v>3604.0</v>
+        <v>3604</v>
       </c>
       <c r="AB5" t="n">
-        <v>2940.0</v>
+        <v>2940</v>
       </c>
       <c r="AC5" t="n">
-        <v>1421.0</v>
+        <v>1421</v>
       </c>
       <c r="AD5" t="n">
-        <v>4714.0</v>
+        <v>4714</v>
       </c>
       <c r="AE5" t="n">
-        <v>2230.0</v>
+        <v>2230</v>
       </c>
       <c r="AF5" t="n">
-        <v>2842.0</v>
+        <v>2842</v>
       </c>
       <c r="AG5" t="n">
-        <v>6113.0</v>
+        <v>6113</v>
       </c>
       <c r="AH5" t="n">
-        <v>4749.0</v>
+        <v>4749</v>
       </c>
       <c r="AI5" t="n">
-        <v>4281.0</v>
+        <v>4281</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1477.0</v>
+        <v>1477</v>
       </c>
       <c r="AK5" t="n">
-        <v>3135.0</v>
+        <v>3135</v>
       </c>
       <c r="AL5" t="n">
-        <v>2167.0</v>
+        <v>2167</v>
       </c>
       <c r="AM5" t="n">
-        <v>3910.0</v>
+        <v>3910</v>
       </c>
       <c r="AN5" t="n">
-        <v>3234.0</v>
+        <v>3234</v>
       </c>
       <c r="AO5" t="n">
-        <v>24999.0</v>
+        <v>24999</v>
       </c>
       <c r="AP5" t="n">
-        <v>7745.0</v>
+        <v>7745</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51436.0</v>
+        <v>51436</v>
       </c>
       <c r="AR5" t="n">
-        <v>12101.0</v>
+        <v>12101</v>
       </c>
       <c r="AS5" t="n">
-        <v>561.0</v>
+        <v>561</v>
       </c>
       <c r="AT5" t="n">
-        <v>1113.0</v>
+        <v>1113</v>
       </c>
       <c r="AU5" t="n">
-        <v>8420.0</v>
+        <v>8420</v>
       </c>
       <c r="AV5" t="n">
-        <v>1109.0</v>
+        <v>1109</v>
       </c>
       <c r="AW5" t="n">
-        <v>6203.0</v>
+        <v>6203</v>
       </c>
       <c r="AX5" t="n">
-        <v>1575.0</v>
+        <v>1575</v>
       </c>
       <c r="AY5" t="n">
-        <v>2273.0</v>
+        <v>2273</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4068.0</v>
+        <v>4068</v>
       </c>
       <c r="BA5" t="n">
-        <v>6970.0</v>
+        <v>6970</v>
       </c>
       <c r="BB5" t="n">
-        <v>29112.0</v>
+        <v>29112</v>
       </c>
       <c r="BC5" t="n">
-        <v>1313.0</v>
+        <v>1313</v>
       </c>
       <c r="BD5" t="n">
-        <v>9789.0</v>
+        <v>9789</v>
       </c>
       <c r="BE5" t="n">
-        <v>4452.0</v>
+        <v>4452</v>
       </c>
       <c r="BF5" t="n">
-        <v>1928.0</v>
+        <v>1928</v>
       </c>
       <c r="BG5" t="n">
-        <v>1931.0</v>
+        <v>1931</v>
       </c>
       <c r="BH5" t="n">
-        <v>16841.0</v>
+        <v>16841</v>
       </c>
       <c r="BI5" t="n">
-        <v>5199.0</v>
+        <v>5199</v>
       </c>
       <c r="BJ5" t="n">
-        <v>54884.0</v>
+        <v>54884</v>
       </c>
       <c r="BK5" t="n">
-        <v>26749.0</v>
+        <v>26749</v>
       </c>
       <c r="BL5" t="n">
-        <v>8328.0</v>
+        <v>8328</v>
       </c>
       <c r="BM5" t="n">
-        <v>12580.0</v>
+        <v>12580</v>
       </c>
       <c r="BN5" t="n">
-        <v>6735.0</v>
+        <v>6735</v>
       </c>
       <c r="BO5" t="n">
-        <v>1232.0</v>
+        <v>1232</v>
       </c>
       <c r="BP5" t="n">
-        <v>5559.0</v>
+        <v>5559</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2827.0</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="n">
-        <v>3423.0</v>
+        <v>3423</v>
       </c>
       <c r="C6" t="n">
-        <v>2521.0</v>
+        <v>2521</v>
       </c>
       <c r="D6" t="n">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="E6" t="n">
-        <v>771.0</v>
+        <v>771</v>
       </c>
       <c r="F6" t="n">
-        <v>4286.0</v>
+        <v>4286</v>
       </c>
       <c r="G6" t="n">
-        <v>1506.0</v>
+        <v>1506</v>
       </c>
       <c r="H6" t="n">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>4381.0</v>
+        <v>4381</v>
       </c>
       <c r="J6" t="n">
-        <v>2547.0</v>
+        <v>2547</v>
       </c>
       <c r="K6" t="n">
-        <v>5466.0</v>
+        <v>5466</v>
       </c>
       <c r="L6" t="n">
-        <v>1594.0</v>
+        <v>1594</v>
       </c>
       <c r="M6" t="n">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="N6" t="n">
-        <v>1852.0</v>
+        <v>1852</v>
       </c>
       <c r="O6" t="n">
-        <v>3277.0</v>
+        <v>3277</v>
       </c>
       <c r="P6" t="n">
-        <v>1486.0</v>
+        <v>1486</v>
       </c>
       <c r="Q6" t="n">
-        <v>1187.0</v>
+        <v>1187</v>
       </c>
       <c r="R6" t="n">
-        <v>1954.0</v>
+        <v>1954</v>
       </c>
       <c r="S6" t="n">
-        <v>1120.0</v>
+        <v>1120</v>
       </c>
       <c r="T6" t="n">
-        <v>1411.0</v>
+        <v>1411</v>
       </c>
       <c r="U6" t="n">
-        <v>1133.0</v>
+        <v>1133</v>
       </c>
       <c r="V6" t="n">
-        <v>2084.0</v>
+        <v>2084</v>
       </c>
       <c r="W6" t="n">
-        <v>1758.0</v>
+        <v>1758</v>
       </c>
       <c r="X6" t="n">
-        <v>1052.0</v>
+        <v>1052</v>
       </c>
       <c r="Y6" t="n">
-        <v>1992.0</v>
+        <v>1992</v>
       </c>
       <c r="Z6" t="n">
-        <v>4148.0</v>
+        <v>4148</v>
       </c>
       <c r="AA6" t="n">
-        <v>3472.0</v>
+        <v>3472</v>
       </c>
       <c r="AB6" t="n">
-        <v>2700.0</v>
+        <v>2700</v>
       </c>
       <c r="AC6" t="n">
-        <v>1358.0</v>
+        <v>1358</v>
       </c>
       <c r="AD6" t="n">
-        <v>4491.0</v>
+        <v>4491</v>
       </c>
       <c r="AE6" t="n">
-        <v>2078.0</v>
+        <v>2078</v>
       </c>
       <c r="AF6" t="n">
-        <v>2637.0</v>
+        <v>2637</v>
       </c>
       <c r="AG6" t="n">
-        <v>5773.0</v>
+        <v>5773</v>
       </c>
       <c r="AH6" t="n">
-        <v>4330.0</v>
+        <v>4330</v>
       </c>
       <c r="AI6" t="n">
-        <v>4094.0</v>
+        <v>4094</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1370.0</v>
+        <v>1370</v>
       </c>
       <c r="AK6" t="n">
-        <v>3034.0</v>
+        <v>3034</v>
       </c>
       <c r="AL6" t="n">
-        <v>2060.0</v>
+        <v>2060</v>
       </c>
       <c r="AM6" t="n">
-        <v>3233.0</v>
+        <v>3233</v>
       </c>
       <c r="AN6" t="n">
-        <v>3131.0</v>
+        <v>3131</v>
       </c>
       <c r="AO6" t="n">
-        <v>24145.0</v>
+        <v>24145</v>
       </c>
       <c r="AP6" t="n">
-        <v>7653.0</v>
+        <v>7653</v>
       </c>
       <c r="AQ6" t="n">
-        <v>50389.0</v>
+        <v>50389</v>
       </c>
       <c r="AR6" t="n">
-        <v>11769.0</v>
+        <v>11769</v>
       </c>
       <c r="AS6" t="n">
-        <v>538.0</v>
+        <v>538</v>
       </c>
       <c r="AT6" t="n">
-        <v>998.0</v>
+        <v>998</v>
       </c>
       <c r="AU6" t="n">
-        <v>7772.0</v>
+        <v>7772</v>
       </c>
       <c r="AV6" t="n">
-        <v>1071.0</v>
+        <v>1071</v>
       </c>
       <c r="AW6" t="n">
-        <v>6137.0</v>
+        <v>6137</v>
       </c>
       <c r="AX6" t="n">
-        <v>1459.0</v>
+        <v>1459</v>
       </c>
       <c r="AY6" t="n">
-        <v>2061.0</v>
+        <v>2061</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3578.0</v>
+        <v>3578</v>
       </c>
       <c r="BA6" t="n">
-        <v>6482.0</v>
+        <v>6482</v>
       </c>
       <c r="BB6" t="n">
-        <v>24092.0</v>
+        <v>24092</v>
       </c>
       <c r="BC6" t="n">
-        <v>1243.0</v>
+        <v>1243</v>
       </c>
       <c r="BD6" t="n">
-        <v>9083.0</v>
+        <v>9083</v>
       </c>
       <c r="BE6" t="n">
-        <v>4341.0</v>
+        <v>4341</v>
       </c>
       <c r="BF6" t="n">
-        <v>1898.0</v>
+        <v>1898</v>
       </c>
       <c r="BG6" t="n">
-        <v>1886.0</v>
+        <v>1886</v>
       </c>
       <c r="BH6" t="n">
-        <v>16435.0</v>
+        <v>16435</v>
       </c>
       <c r="BI6" t="n">
-        <v>5101.0</v>
+        <v>5101</v>
       </c>
       <c r="BJ6" t="n">
-        <v>54175.0</v>
+        <v>54175</v>
       </c>
       <c r="BK6" t="n">
-        <v>26686.0</v>
+        <v>26686</v>
       </c>
       <c r="BL6" t="n">
-        <v>8320.0</v>
+        <v>8320</v>
       </c>
       <c r="BM6" t="n">
-        <v>12572.0</v>
+        <v>12572</v>
       </c>
       <c r="BN6" t="n">
-        <v>6497.0</v>
+        <v>6497</v>
       </c>
       <c r="BO6" t="n">
-        <v>1215.0</v>
+        <v>1215</v>
       </c>
       <c r="BP6" t="n">
-        <v>5465.0</v>
+        <v>5465</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2827.0</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="F7" t="n">
-        <v>920.0</v>
+        <v>920</v>
       </c>
       <c r="G7" t="n">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="H7" t="n">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="I7" t="n">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="J7" t="n">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="K7" t="n">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="L7" t="n">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="M7" t="n">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="N7" t="n">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="O7" t="n">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="P7" t="n">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="n">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="R7" t="n">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="S7" t="n">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="T7" t="n">
-        <v>796.0</v>
+        <v>796</v>
       </c>
       <c r="U7" t="n">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="V7" t="n">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="W7" t="n">
-        <v>322.0</v>
+        <v>322</v>
       </c>
       <c r="X7" t="n">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="Y7" t="n">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="Z7" t="n">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="AA7" t="n">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="AB7" t="n">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="AC7" t="n">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="AD7" t="n">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="AE7" t="n">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="AF7" t="n">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="AG7" t="n">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="AH7" t="n">
-        <v>419.0</v>
+        <v>419</v>
       </c>
       <c r="AI7" t="n">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="AJ7" t="n">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="AK7" t="n">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="AL7" t="n">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="AM7" t="n">
-        <v>677.0</v>
+        <v>677</v>
       </c>
       <c r="AN7" t="n">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="AO7" t="n">
-        <v>854.0</v>
+        <v>854</v>
       </c>
       <c r="AP7" t="n">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1047.0</v>
+        <v>1047</v>
       </c>
       <c r="AR7" t="n">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="AS7" t="n">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AT7" t="n">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="AU7" t="n">
-        <v>648.0</v>
+        <v>648</v>
       </c>
       <c r="AV7" t="n">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="AW7" t="n">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="AX7" t="n">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="AY7" t="n">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="AZ7" t="n">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="BA7" t="n">
-        <v>488.0</v>
+        <v>488</v>
       </c>
       <c r="BB7" t="n">
-        <v>5020.0</v>
+        <v>5020</v>
       </c>
       <c r="BC7" t="n">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="BD7" t="n">
-        <v>706.0</v>
+        <v>706</v>
       </c>
       <c r="BE7" t="n">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="BF7" t="n">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="BG7" t="n">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="BH7" t="n">
-        <v>406.0</v>
+        <v>406</v>
       </c>
       <c r="BI7" t="n">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="BJ7" t="n">
-        <v>709.0</v>
+        <v>709</v>
       </c>
       <c r="BK7" t="n">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="BL7" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="BM7" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="BN7" t="n">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="BO7" t="n">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="BP7" t="n">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>54612.0</v>
+        <v>54612</v>
       </c>
       <c r="BK8" t="n">
-        <v>2766.0</v>
+        <v>2766</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>5017.0</v>
+        <v>5017</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" t="n">
-        <v>141403.0</v>
+        <v>141403</v>
       </c>
       <c r="C9" t="n">
-        <v>41945.0</v>
+        <v>41945</v>
       </c>
       <c r="D9" t="n">
-        <v>19507.0</v>
+        <v>19507</v>
       </c>
       <c r="E9" t="n">
-        <v>4902.0</v>
+        <v>4902</v>
       </c>
       <c r="F9" t="n">
-        <v>104310.0</v>
+        <v>104310</v>
       </c>
       <c r="G9" t="n">
-        <v>46378.0</v>
+        <v>46378</v>
       </c>
       <c r="H9" t="n">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="I9" t="n">
-        <v>9644.0</v>
+        <v>9644</v>
       </c>
       <c r="J9" t="n">
-        <v>-1270.0</v>
+        <v>-1270</v>
       </c>
       <c r="K9" t="n">
-        <v>17383.0</v>
+        <v>17383</v>
       </c>
       <c r="L9" t="n">
-        <v>11262.0</v>
+        <v>11262</v>
       </c>
       <c r="M9" t="n">
-        <v>3328.0</v>
+        <v>3328</v>
       </c>
       <c r="N9" t="n">
-        <v>3609.0</v>
+        <v>3609</v>
       </c>
       <c r="O9" t="n">
-        <v>7111.0</v>
+        <v>7111</v>
       </c>
       <c r="P9" t="n">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="Q9" t="n">
-        <v>3909.0</v>
+        <v>3909</v>
       </c>
       <c r="R9" t="n">
-        <v>7222.0</v>
+        <v>7222</v>
       </c>
       <c r="S9" t="n">
-        <v>3902.0</v>
+        <v>3902</v>
       </c>
       <c r="T9" t="n">
-        <v>-35786.0</v>
+        <v>-35786</v>
       </c>
       <c r="U9" t="n">
-        <v>2228.0</v>
+        <v>2228</v>
       </c>
       <c r="V9" t="n">
-        <v>5653.0</v>
+        <v>5653</v>
       </c>
       <c r="W9" t="n">
-        <v>4396.0</v>
+        <v>4396</v>
       </c>
       <c r="X9" t="n">
-        <v>3146.0</v>
+        <v>3146</v>
       </c>
       <c r="Y9" t="n">
-        <v>13379.0</v>
+        <v>13379</v>
       </c>
       <c r="Z9" t="n">
-        <v>5672.0</v>
+        <v>5672</v>
       </c>
       <c r="AA9" t="n">
-        <v>10803.0</v>
+        <v>10803</v>
       </c>
       <c r="AB9" t="n">
-        <v>11848.0</v>
+        <v>11848</v>
       </c>
       <c r="AC9" t="n">
-        <v>2798.0</v>
+        <v>2798</v>
       </c>
       <c r="AD9" t="n">
-        <v>11801.0</v>
+        <v>11801</v>
       </c>
       <c r="AE9" t="n">
-        <v>6822.0</v>
+        <v>6822</v>
       </c>
       <c r="AF9" t="n">
-        <v>4381.0</v>
+        <v>4381</v>
       </c>
       <c r="AG9" t="n">
-        <v>10194.0</v>
+        <v>10194</v>
       </c>
       <c r="AH9" t="n">
-        <v>14660.0</v>
+        <v>14660</v>
       </c>
       <c r="AI9" t="n">
-        <v>4708.0</v>
+        <v>4708</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2978.0</v>
+        <v>2978</v>
       </c>
       <c r="AK9" t="n">
-        <v>15742.0</v>
+        <v>15742</v>
       </c>
       <c r="AL9" t="n">
-        <v>10591.0</v>
+        <v>10591</v>
       </c>
       <c r="AM9" t="n">
-        <v>41506.0</v>
+        <v>41506</v>
       </c>
       <c r="AN9" t="n">
-        <v>21241.0</v>
+        <v>21241</v>
       </c>
       <c r="AO9" t="n">
-        <v>158461.0</v>
+        <v>158461</v>
       </c>
       <c r="AP9" t="n">
-        <v>44641.0</v>
+        <v>44641</v>
       </c>
       <c r="AQ9" t="n">
-        <v>273215.0</v>
+        <v>273215</v>
       </c>
       <c r="AR9" t="n">
-        <v>64932.0</v>
+        <v>64932</v>
       </c>
       <c r="AS9" t="n">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="AT9" t="n">
-        <v>1528.0</v>
+        <v>1528</v>
       </c>
       <c r="AU9" t="n">
-        <v>21940.0</v>
+        <v>21940</v>
       </c>
       <c r="AV9" t="n">
-        <v>4714.0</v>
+        <v>4714</v>
       </c>
       <c r="AW9" t="n">
-        <v>56226.0</v>
+        <v>56226</v>
       </c>
       <c r="AX9" t="n">
-        <v>2331.0</v>
+        <v>2331</v>
       </c>
       <c r="AY9" t="n">
-        <v>6990.0</v>
+        <v>6990</v>
       </c>
       <c r="AZ9" t="n">
-        <v>42146.0</v>
+        <v>42146</v>
       </c>
       <c r="BA9" t="n">
-        <v>32869.0</v>
+        <v>32869</v>
       </c>
       <c r="BB9" t="n">
-        <v>147117.0</v>
+        <v>147117</v>
       </c>
       <c r="BC9" t="n">
-        <v>413257.0</v>
+        <v>413257</v>
       </c>
       <c r="BD9" t="n">
-        <v>62501.0</v>
+        <v>62501</v>
       </c>
       <c r="BE9" t="n">
-        <v>22560.0</v>
+        <v>22560</v>
       </c>
       <c r="BF9" t="n">
-        <v>15288.0</v>
+        <v>15288</v>
       </c>
       <c r="BG9" t="n">
-        <v>21294.0</v>
+        <v>21294</v>
       </c>
       <c r="BH9" t="n">
-        <v>41712.0</v>
+        <v>41712</v>
       </c>
       <c r="BI9" t="n">
-        <v>3578.0</v>
+        <v>3578</v>
       </c>
       <c r="BJ9" t="n">
-        <v>56795.0</v>
+        <v>56795</v>
       </c>
       <c r="BK9" t="n">
-        <v>8923.0</v>
+        <v>8923</v>
       </c>
       <c r="BL9" t="n">
-        <v>5503.0</v>
+        <v>5503</v>
       </c>
       <c r="BM9" t="n">
-        <v>4375.0</v>
+        <v>4375</v>
       </c>
       <c r="BN9" t="n">
-        <v>52539.0</v>
+        <v>52539</v>
       </c>
       <c r="BO9" t="n">
-        <v>8268.0</v>
+        <v>8268</v>
       </c>
       <c r="BP9" t="n">
-        <v>25139.0</v>
+        <v>25139</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" t="n">
-        <v>75209.0</v>
+        <v>75209</v>
       </c>
       <c r="C10" t="n">
-        <v>31892.0</v>
+        <v>31892</v>
       </c>
       <c r="D10" t="n">
-        <v>9586.0</v>
+        <v>9586</v>
       </c>
       <c r="E10" t="n">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>298.0</v>
+        <v>298</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3659.0</v>
+        <v>3659</v>
       </c>
       <c r="L10" t="n">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1274.0</v>
+        <v>1274</v>
       </c>
       <c r="O10" t="n">
-        <v>6447.0</v>
+        <v>6447</v>
       </c>
       <c r="P10" t="n">
-        <v>558.0</v>
+        <v>558</v>
       </c>
       <c r="Q10" t="n">
-        <v>1495.0</v>
+        <v>1495</v>
       </c>
       <c r="R10" t="n">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="S10" t="n">
-        <v>434.0</v>
+        <v>434</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>395.0</v>
+        <v>395</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="AA10" t="n">
-        <v>693.0</v>
+        <v>693</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AD10" t="n">
-        <v>2213.0</v>
+        <v>2213</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="AJ10" t="n">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="AK10" t="n">
-        <v>1589.0</v>
+        <v>1589</v>
       </c>
       <c r="AL10" t="n">
-        <v>4003.0</v>
+        <v>4003</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1540.0</v>
+        <v>1540</v>
       </c>
       <c r="AO10" t="n">
-        <v>68457.0</v>
+        <v>68457</v>
       </c>
       <c r="AP10" t="n">
-        <v>18345.0</v>
+        <v>18345</v>
       </c>
       <c r="AQ10" t="n">
-        <v>55971.0</v>
+        <v>55971</v>
       </c>
       <c r="AR10" t="n">
-        <v>24698.0</v>
+        <v>24698</v>
       </c>
       <c r="AS10" t="n">
-        <v>313.0</v>
+        <v>313</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>1031.0</v>
+        <v>1031</v>
       </c>
       <c r="AV10" t="n">
-        <v>662.0</v>
+        <v>662</v>
       </c>
       <c r="AW10" t="n">
-        <v>31545.0</v>
+        <v>31545</v>
       </c>
       <c r="AX10" t="n">
-        <v>607.0</v>
+        <v>607</v>
       </c>
       <c r="AY10" t="n">
-        <v>547.0</v>
+        <v>547</v>
       </c>
       <c r="AZ10" t="n">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="BA10" t="n">
-        <v>6398.0</v>
+        <v>6398</v>
       </c>
       <c r="BB10" t="n">
-        <v>2182.0</v>
+        <v>2182</v>
       </c>
       <c r="BC10" t="n">
-        <v>3909.0</v>
+        <v>3909</v>
       </c>
       <c r="BD10" t="n">
-        <v>27012.0</v>
+        <v>27012</v>
       </c>
       <c r="BE10" t="n">
-        <v>9458.0</v>
+        <v>9458</v>
       </c>
       <c r="BF10" t="n">
-        <v>4976.0</v>
+        <v>4976</v>
       </c>
       <c r="BG10" t="n">
-        <v>746.0</v>
+        <v>746</v>
       </c>
       <c r="BH10" t="n">
-        <v>4723.0</v>
+        <v>4723</v>
       </c>
       <c r="BI10" t="n">
-        <v>895.0</v>
+        <v>895</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>4765.0</v>
+        <v>4765</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>26915.0</v>
+        <v>26915</v>
       </c>
       <c r="BO10" t="n">
-        <v>5371.0</v>
+        <v>5371</v>
       </c>
       <c r="BP10" t="n">
-        <v>18829.0</v>
+        <v>18829</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" t="n">
-        <v>66194.0</v>
+        <v>66194</v>
       </c>
       <c r="C11" t="n">
-        <v>10053.0</v>
+        <v>10053</v>
       </c>
       <c r="D11" t="n">
-        <v>9921.0</v>
+        <v>9921</v>
       </c>
       <c r="E11" t="n">
-        <v>4649.0</v>
+        <v>4649</v>
       </c>
       <c r="F11" t="n">
-        <v>104310.0</v>
+        <v>104310</v>
       </c>
       <c r="G11" t="n">
-        <v>46378.0</v>
+        <v>46378</v>
       </c>
       <c r="H11" t="n">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="I11" t="n">
-        <v>9346.0</v>
+        <v>9346</v>
       </c>
       <c r="J11" t="n">
-        <v>-1270.0</v>
+        <v>-1270</v>
       </c>
       <c r="K11" t="n">
-        <v>13724.0</v>
+        <v>13724</v>
       </c>
       <c r="L11" t="n">
-        <v>11242.0</v>
+        <v>11242</v>
       </c>
       <c r="M11" t="n">
-        <v>3328.0</v>
+        <v>3328</v>
       </c>
       <c r="N11" t="n">
-        <v>2335.0</v>
+        <v>2335</v>
       </c>
       <c r="O11" t="n">
-        <v>664.0</v>
+        <v>664</v>
       </c>
       <c r="P11" t="n">
-        <v>3138.0</v>
+        <v>3138</v>
       </c>
       <c r="Q11" t="n">
-        <v>2414.0</v>
+        <v>2414</v>
       </c>
       <c r="R11" t="n">
-        <v>6965.0</v>
+        <v>6965</v>
       </c>
       <c r="S11" t="n">
-        <v>3468.0</v>
+        <v>3468</v>
       </c>
       <c r="T11" t="n">
-        <v>-35786.0</v>
+        <v>-35786</v>
       </c>
       <c r="U11" t="n">
-        <v>2228.0</v>
+        <v>2228</v>
       </c>
       <c r="V11" t="n">
-        <v>5653.0</v>
+        <v>5653</v>
       </c>
       <c r="W11" t="n">
-        <v>4396.0</v>
+        <v>4396</v>
       </c>
       <c r="X11" t="n">
-        <v>2751.0</v>
+        <v>2751</v>
       </c>
       <c r="Y11" t="n">
-        <v>13379.0</v>
+        <v>13379</v>
       </c>
       <c r="Z11" t="n">
-        <v>5456.0</v>
+        <v>5456</v>
       </c>
       <c r="AA11" t="n">
-        <v>10110.0</v>
+        <v>10110</v>
       </c>
       <c r="AB11" t="n">
-        <v>11848.0</v>
+        <v>11848</v>
       </c>
       <c r="AC11" t="n">
-        <v>2794.0</v>
+        <v>2794</v>
       </c>
       <c r="AD11" t="n">
-        <v>9588.0</v>
+        <v>9588</v>
       </c>
       <c r="AE11" t="n">
-        <v>6822.0</v>
+        <v>6822</v>
       </c>
       <c r="AF11" t="n">
-        <v>4381.0</v>
+        <v>4381</v>
       </c>
       <c r="AG11" t="n">
-        <v>10194.0</v>
+        <v>10194</v>
       </c>
       <c r="AH11" t="n">
-        <v>14660.0</v>
+        <v>14660</v>
       </c>
       <c r="AI11" t="n">
-        <v>4658.0</v>
+        <v>4658</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2929.0</v>
+        <v>2929</v>
       </c>
       <c r="AK11" t="n">
-        <v>14153.0</v>
+        <v>14153</v>
       </c>
       <c r="AL11" t="n">
-        <v>6588.0</v>
+        <v>6588</v>
       </c>
       <c r="AM11" t="n">
-        <v>41506.0</v>
+        <v>41506</v>
       </c>
       <c r="AN11" t="n">
-        <v>19701.0</v>
+        <v>19701</v>
       </c>
       <c r="AO11" t="n">
-        <v>90004.0</v>
+        <v>90004</v>
       </c>
       <c r="AP11" t="n">
-        <v>26296.0</v>
+        <v>26296</v>
       </c>
       <c r="AQ11" t="n">
-        <v>217244.0</v>
+        <v>217244</v>
       </c>
       <c r="AR11" t="n">
-        <v>40234.0</v>
+        <v>40234</v>
       </c>
       <c r="AS11" t="n">
-        <v>1699.0</v>
+        <v>1699</v>
       </c>
       <c r="AT11" t="n">
-        <v>1528.0</v>
+        <v>1528</v>
       </c>
       <c r="AU11" t="n">
-        <v>20909.0</v>
+        <v>20909</v>
       </c>
       <c r="AV11" t="n">
-        <v>4052.0</v>
+        <v>4052</v>
       </c>
       <c r="AW11" t="n">
-        <v>24681.0</v>
+        <v>24681</v>
       </c>
       <c r="AX11" t="n">
-        <v>1724.0</v>
+        <v>1724</v>
       </c>
       <c r="AY11" t="n">
-        <v>6443.0</v>
+        <v>6443</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41804.0</v>
+        <v>41804</v>
       </c>
       <c r="BA11" t="n">
-        <v>26471.0</v>
+        <v>26471</v>
       </c>
       <c r="BB11" t="n">
-        <v>144935.0</v>
+        <v>144935</v>
       </c>
       <c r="BC11" t="n">
-        <v>409348.0</v>
+        <v>409348</v>
       </c>
       <c r="BD11" t="n">
-        <v>35489.0</v>
+        <v>35489</v>
       </c>
       <c r="BE11" t="n">
-        <v>13102.0</v>
+        <v>13102</v>
       </c>
       <c r="BF11" t="n">
-        <v>10312.0</v>
+        <v>10312</v>
       </c>
       <c r="BG11" t="n">
-        <v>20548.0</v>
+        <v>20548</v>
       </c>
       <c r="BH11" t="n">
-        <v>36989.0</v>
+        <v>36989</v>
       </c>
       <c r="BI11" t="n">
-        <v>2683.0</v>
+        <v>2683</v>
       </c>
       <c r="BJ11" t="n">
-        <v>56795.0</v>
+        <v>56795</v>
       </c>
       <c r="BK11" t="n">
-        <v>8923.0</v>
+        <v>8923</v>
       </c>
       <c r="BL11" t="n">
-        <v>738.0</v>
+        <v>738</v>
       </c>
       <c r="BM11" t="n">
-        <v>4375.0</v>
+        <v>4375</v>
       </c>
       <c r="BN11" t="n">
-        <v>25624.0</v>
+        <v>25624</v>
       </c>
       <c r="BO11" t="n">
-        <v>2897.0</v>
+        <v>2897</v>
       </c>
       <c r="BP11" t="n">
-        <v>6310.0</v>
+        <v>6310</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" t="n">
-        <v>1016.0</v>
+        <v>1016</v>
       </c>
       <c r="C12" t="n">
-        <v>449.0</v>
+        <v>449</v>
       </c>
       <c r="D12" t="n">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="E12" t="n">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="F12" t="n">
-        <v>1163.0</v>
+        <v>1163</v>
       </c>
       <c r="G12" t="n">
-        <v>487.0</v>
+        <v>487</v>
       </c>
       <c r="H12" t="n">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="I12" t="n">
-        <v>1407.0</v>
+        <v>1407</v>
       </c>
       <c r="J12" t="n">
-        <v>649.0</v>
+        <v>649</v>
       </c>
       <c r="K12" t="n">
-        <v>1747.0</v>
+        <v>1747</v>
       </c>
       <c r="L12" t="n">
-        <v>629.0</v>
+        <v>629</v>
       </c>
       <c r="M12" t="n">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="N12" t="n">
-        <v>393.0</v>
+        <v>393</v>
       </c>
       <c r="O12" t="n">
-        <v>540.0</v>
+        <v>540</v>
       </c>
       <c r="P12" t="n">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="Q12" t="n">
-        <v>269.0</v>
+        <v>269</v>
       </c>
       <c r="R12" t="n">
-        <v>510.0</v>
+        <v>510</v>
       </c>
       <c r="S12" t="n">
-        <v>259.0</v>
+        <v>259</v>
       </c>
       <c r="T12" t="n">
-        <v>821.0</v>
+        <v>821</v>
       </c>
       <c r="U12" t="n">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="V12" t="n">
-        <v>754.0</v>
+        <v>754</v>
       </c>
       <c r="W12" t="n">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="X12" t="n">
-        <v>269.0</v>
+        <v>269</v>
       </c>
       <c r="Y12" t="n">
-        <v>402.0</v>
+        <v>402</v>
       </c>
       <c r="Z12" t="n">
-        <v>855.0</v>
+        <v>855</v>
       </c>
       <c r="AA12" t="n">
-        <v>759.0</v>
+        <v>759</v>
       </c>
       <c r="AB12" t="n">
-        <v>736.0</v>
+        <v>736</v>
       </c>
       <c r="AC12" t="n">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="AD12" t="n">
-        <v>888.0</v>
+        <v>888</v>
       </c>
       <c r="AE12" t="n">
-        <v>842.0</v>
+        <v>842</v>
       </c>
       <c r="AF12" t="n">
-        <v>618.0</v>
+        <v>618</v>
       </c>
       <c r="AG12" t="n">
-        <v>1198.0</v>
+        <v>1198</v>
       </c>
       <c r="AH12" t="n">
-        <v>1294.0</v>
+        <v>1294</v>
       </c>
       <c r="AI12" t="n">
-        <v>855.0</v>
+        <v>855</v>
       </c>
       <c r="AJ12" t="n">
-        <v>376.0</v>
+        <v>376</v>
       </c>
       <c r="AK12" t="n">
-        <v>545.0</v>
+        <v>545</v>
       </c>
       <c r="AL12" t="n">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="AM12" t="n">
-        <v>1580.0</v>
+        <v>1580</v>
       </c>
       <c r="AN12" t="n">
-        <v>548.0</v>
+        <v>548</v>
       </c>
       <c r="AO12" t="n">
-        <v>3899.0</v>
+        <v>3899</v>
       </c>
       <c r="AP12" t="n">
-        <v>1107.0</v>
+        <v>1107</v>
       </c>
       <c r="AQ12" t="n">
-        <v>8012.0</v>
+        <v>8012</v>
       </c>
       <c r="AR12" t="n">
-        <v>2301.0</v>
+        <v>2301</v>
       </c>
       <c r="AS12" t="n">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="AT12" t="n">
-        <v>463.0</v>
+        <v>463</v>
       </c>
       <c r="AU12" t="n">
-        <v>1407.0</v>
+        <v>1407</v>
       </c>
       <c r="AV12" t="n">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="AW12" t="n">
-        <v>1047.0</v>
+        <v>1047</v>
       </c>
       <c r="AX12" t="n">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="AY12" t="n">
-        <v>821.0</v>
+        <v>821</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4396.0</v>
+        <v>4396</v>
       </c>
       <c r="BA12" t="n">
-        <v>1140.0</v>
+        <v>1140</v>
       </c>
       <c r="BB12" t="n">
-        <v>5731.0</v>
+        <v>5731</v>
       </c>
       <c r="BC12" t="n">
-        <v>267.0</v>
+        <v>267</v>
       </c>
       <c r="BD12" t="n">
-        <v>1545.0</v>
+        <v>1545</v>
       </c>
       <c r="BE12" t="n">
-        <v>645.0</v>
+        <v>645</v>
       </c>
       <c r="BF12" t="n">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="BG12" t="n">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="BH12" t="n">
-        <v>2193.0</v>
+        <v>2193</v>
       </c>
       <c r="BI12" t="n">
-        <v>698.0</v>
+        <v>698</v>
       </c>
       <c r="BJ12" t="n">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="BK12" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BL12" t="n">
-        <v>1476.0</v>
+        <v>1476</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BN12" t="n">
-        <v>1589.0</v>
+        <v>1589</v>
       </c>
       <c r="BO12" t="n">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="BP12" t="n">
-        <v>1007.0</v>
+        <v>1007</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" t="n">
-        <v>-9163.0</v>
+        <v>-9163</v>
       </c>
       <c r="C13" t="n">
-        <v>-121.0</v>
+        <v>-121</v>
       </c>
       <c r="D13" t="n">
-        <v>-55.0</v>
+        <v>-55</v>
       </c>
       <c r="E13" t="n">
-        <v>-73.0</v>
+        <v>-73</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-91.0</v>
+        <v>-91</v>
       </c>
       <c r="J13" t="n">
-        <v>-103.0</v>
+        <v>-103</v>
       </c>
       <c r="K13" t="n">
-        <v>-87.0</v>
+        <v>-87</v>
       </c>
       <c r="L13" t="n">
-        <v>-36.0</v>
+        <v>-36</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-19.0</v>
+        <v>-19</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-37.0</v>
+        <v>-37</v>
       </c>
       <c r="R13" t="n">
-        <v>-75.0</v>
+        <v>-75</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-61.0</v>
+        <v>-61</v>
       </c>
       <c r="U13" t="n">
-        <v>-575.0</v>
+        <v>-575</v>
       </c>
       <c r="V13" t="n">
-        <v>-22.0</v>
+        <v>-22</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-28.0</v>
+        <v>-28</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-89.0</v>
+        <v>-89</v>
       </c>
       <c r="AA13" t="n">
-        <v>-115.0</v>
+        <v>-115</v>
       </c>
       <c r="AB13" t="n">
-        <v>-18.0</v>
+        <v>-18</v>
       </c>
       <c r="AC13" t="n">
-        <v>-90.0</v>
+        <v>-90</v>
       </c>
       <c r="AD13" t="n">
-        <v>-84.0</v>
+        <v>-84</v>
       </c>
       <c r="AE13" t="n">
-        <v>-48.0</v>
+        <v>-48</v>
       </c>
       <c r="AF13" t="n">
-        <v>-65.0</v>
+        <v>-65</v>
       </c>
       <c r="AG13" t="n">
-        <v>-219.0</v>
+        <v>-219</v>
       </c>
       <c r="AH13" t="n">
-        <v>-228.0</v>
+        <v>-228</v>
       </c>
       <c r="AI13" t="n">
-        <v>-96.0</v>
+        <v>-96</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-86.0</v>
+        <v>-86</v>
       </c>
       <c r="AK13" t="n">
-        <v>-27.0</v>
+        <v>-27</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-773.0</v>
+        <v>-773</v>
       </c>
       <c r="AN13" t="n">
-        <v>-33.0</v>
+        <v>-33</v>
       </c>
       <c r="AO13" t="n">
-        <v>-470.0</v>
+        <v>-470</v>
       </c>
       <c r="AP13" t="n">
-        <v>-30.0</v>
+        <v>-30</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-1104.0</v>
+        <v>-1104</v>
       </c>
       <c r="AR13" t="n">
-        <v>-1463.0</v>
+        <v>-1463</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-75.0</v>
+        <v>-75</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-120.0</v>
+        <v>-120</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>-587.0</v>
+        <v>-587</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-172.0</v>
+        <v>-172</v>
       </c>
       <c r="BH13" t="n">
-        <v>-35.0</v>
+        <v>-35</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>-17.0</v>
+        <v>-17</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" t="n">
-        <v>265107.0</v>
+        <v>265107</v>
       </c>
       <c r="C14" t="n">
-        <v>115344.0</v>
+        <v>115344</v>
       </c>
       <c r="D14" t="n">
-        <v>29049.0</v>
+        <v>29049</v>
       </c>
       <c r="E14" t="n">
-        <v>19448.0</v>
+        <v>19448</v>
       </c>
       <c r="F14" t="n">
-        <v>193311.0</v>
+        <v>193311</v>
       </c>
       <c r="G14" t="n">
-        <v>78124.0</v>
+        <v>78124</v>
       </c>
       <c r="H14" t="n">
-        <v>11760.0</v>
+        <v>11760</v>
       </c>
       <c r="I14" t="n">
-        <v>208644.0</v>
+        <v>208644</v>
       </c>
       <c r="J14" t="n">
-        <v>52724.0</v>
+        <v>52724</v>
       </c>
       <c r="K14" t="n">
-        <v>224397.0</v>
+        <v>224397</v>
       </c>
       <c r="L14" t="n">
-        <v>62716.0</v>
+        <v>62716</v>
       </c>
       <c r="M14" t="n">
-        <v>15272.0</v>
+        <v>15272</v>
       </c>
       <c r="N14" t="n">
-        <v>46634.0</v>
+        <v>46634</v>
       </c>
       <c r="O14" t="n">
-        <v>60567.0</v>
+        <v>60567</v>
       </c>
       <c r="P14" t="n">
-        <v>38136.0</v>
+        <v>38136</v>
       </c>
       <c r="Q14" t="n">
-        <v>25749.0</v>
+        <v>25749</v>
       </c>
       <c r="R14" t="n">
-        <v>66502.0</v>
+        <v>66502</v>
       </c>
       <c r="S14" t="n">
-        <v>21287.0</v>
+        <v>21287</v>
       </c>
       <c r="T14" t="n">
-        <v>319082.0</v>
+        <v>319082</v>
       </c>
       <c r="U14" t="n">
-        <v>32241.0</v>
+        <v>32241</v>
       </c>
       <c r="V14" t="n">
-        <v>124304.0</v>
+        <v>124304</v>
       </c>
       <c r="W14" t="n">
-        <v>63035.0</v>
+        <v>63035</v>
       </c>
       <c r="X14" t="n">
-        <v>35511.0</v>
+        <v>35511</v>
       </c>
       <c r="Y14" t="n">
-        <v>50692.0</v>
+        <v>50692</v>
       </c>
       <c r="Z14" t="n">
-        <v>97053.0</v>
+        <v>97053</v>
       </c>
       <c r="AA14" t="n">
-        <v>86780.0</v>
+        <v>86780</v>
       </c>
       <c r="AB14" t="n">
-        <v>104408.0</v>
+        <v>104408</v>
       </c>
       <c r="AC14" t="n">
-        <v>49609.0</v>
+        <v>49609</v>
       </c>
       <c r="AD14" t="n">
-        <v>92851.0</v>
+        <v>92851</v>
       </c>
       <c r="AE14" t="n">
-        <v>88197.0</v>
+        <v>88197</v>
       </c>
       <c r="AF14" t="n">
-        <v>71166.0</v>
+        <v>71166</v>
       </c>
       <c r="AG14" t="n">
-        <v>131325.0</v>
+        <v>131325</v>
       </c>
       <c r="AH14" t="n">
-        <v>194474.0</v>
+        <v>194474</v>
       </c>
       <c r="AI14" t="n">
-        <v>89100.0</v>
+        <v>89100</v>
       </c>
       <c r="AJ14" t="n">
-        <v>42779.0</v>
+        <v>42779</v>
       </c>
       <c r="AK14" t="n">
-        <v>67071.0</v>
+        <v>67071</v>
       </c>
       <c r="AL14" t="n">
-        <v>55016.0</v>
+        <v>55016</v>
       </c>
       <c r="AM14" t="n">
-        <v>180886.0</v>
+        <v>180886</v>
       </c>
       <c r="AN14" t="n">
-        <v>56737.0</v>
+        <v>56737</v>
       </c>
       <c r="AO14" t="n">
-        <v>627086.0</v>
+        <v>627086</v>
       </c>
       <c r="AP14" t="n">
-        <v>139739.0</v>
+        <v>139739</v>
       </c>
       <c r="AQ14" t="n">
-        <v>822455.0</v>
+        <v>822455</v>
       </c>
       <c r="AR14" t="n">
-        <v>290078.0</v>
+        <v>290078</v>
       </c>
       <c r="AS14" t="n">
-        <v>16016.0</v>
+        <v>16016</v>
       </c>
       <c r="AT14" t="n">
-        <v>35430.0</v>
+        <v>35430</v>
       </c>
       <c r="AU14" t="n">
-        <v>100401.0</v>
+        <v>100401</v>
       </c>
       <c r="AV14" t="n">
-        <v>21312.0</v>
+        <v>21312</v>
       </c>
       <c r="AW14" t="n">
-        <v>192196.0</v>
+        <v>192196</v>
       </c>
       <c r="AX14" t="n">
-        <v>21590.0</v>
+        <v>21590</v>
       </c>
       <c r="AY14" t="n">
-        <v>38494.0</v>
+        <v>38494</v>
       </c>
       <c r="AZ14" t="n">
-        <v>160382.0</v>
+        <v>160382</v>
       </c>
       <c r="BA14" t="n">
-        <v>101707.0</v>
+        <v>101707</v>
       </c>
       <c r="BB14" t="n">
-        <v>450619.0</v>
+        <v>450619</v>
       </c>
       <c r="BC14" t="n">
-        <v>455145.0</v>
+        <v>455145</v>
       </c>
       <c r="BD14" t="n">
-        <v>160406.0</v>
+        <v>160406</v>
       </c>
       <c r="BE14" t="n">
-        <v>69019.0</v>
+        <v>69019</v>
       </c>
       <c r="BF14" t="n">
-        <v>80404.0</v>
+        <v>80404</v>
       </c>
       <c r="BG14" t="n">
-        <v>45210.0</v>
+        <v>45210</v>
       </c>
       <c r="BH14" t="n">
-        <v>182232.0</v>
+        <v>182232</v>
       </c>
       <c r="BI14" t="n">
-        <v>33105.0</v>
+        <v>33105</v>
       </c>
       <c r="BJ14" t="n">
-        <v>628194.0</v>
+        <v>628194</v>
       </c>
       <c r="BK14" t="n">
-        <v>252328.0</v>
+        <v>252328</v>
       </c>
       <c r="BL14" t="n">
-        <v>83639.0</v>
+        <v>83639</v>
       </c>
       <c r="BM14" t="n">
-        <v>146225.0</v>
+        <v>146225</v>
       </c>
       <c r="BN14" t="n">
-        <v>168457.0</v>
+        <v>168457</v>
       </c>
       <c r="BO14" t="n">
-        <v>31169.0</v>
+        <v>31169</v>
       </c>
       <c r="BP14" t="n">
-        <v>131271.0</v>
+        <v>131271</v>
       </c>
       <c r="BQ14" t="n">
-        <v>53656.0</v>
+        <v>53656</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" t="n">
-        <v>6083373.0</v>
+        <v>6083373</v>
       </c>
       <c r="C15" t="n">
-        <v>6422856.0</v>
+        <v>6422856</v>
       </c>
       <c r="D15" t="n">
-        <v>941887.0</v>
+        <v>941887</v>
       </c>
       <c r="E15" t="n">
-        <v>146907.0</v>
+        <v>146907</v>
       </c>
       <c r="F15" t="n">
-        <v>70370.0</v>
+        <v>70370</v>
       </c>
       <c r="G15" t="n">
-        <v>56055.0</v>
+        <v>56055</v>
       </c>
       <c r="H15" t="n">
-        <v>35080.0</v>
+        <v>35080</v>
       </c>
       <c r="I15" t="n">
-        <v>676626.0</v>
+        <v>676626</v>
       </c>
       <c r="J15" t="n">
-        <v>232800.0</v>
+        <v>232800</v>
       </c>
       <c r="K15" t="n">
-        <v>1284075.0</v>
+        <v>1284075</v>
       </c>
       <c r="L15" t="n">
-        <v>180180.0</v>
+        <v>180180</v>
       </c>
       <c r="M15" t="n">
-        <v>19165.0</v>
+        <v>19165</v>
       </c>
       <c r="N15" t="n">
-        <v>663324.0</v>
+        <v>663324</v>
       </c>
       <c r="O15" t="n">
-        <v>1812183.0</v>
+        <v>1812183</v>
       </c>
       <c r="P15" t="n">
-        <v>554059.0</v>
+        <v>554059</v>
       </c>
       <c r="Q15" t="n">
-        <v>424526.0</v>
+        <v>424526</v>
       </c>
       <c r="R15" t="n">
-        <v>205613.0</v>
+        <v>205613</v>
       </c>
       <c r="S15" t="n">
-        <v>208523.0</v>
+        <v>208523</v>
       </c>
       <c r="T15" t="n">
-        <v>26144.0</v>
+        <v>26144</v>
       </c>
       <c r="U15" t="n">
-        <v>92651.0</v>
+        <v>92651</v>
       </c>
       <c r="V15" t="n">
-        <v>97022.0</v>
+        <v>97022</v>
       </c>
       <c r="W15" t="n">
-        <v>100745.0</v>
+        <v>100745</v>
       </c>
       <c r="X15" t="n">
-        <v>150491.0</v>
+        <v>150491</v>
       </c>
       <c r="Y15" t="n">
-        <v>105440.0</v>
+        <v>105440</v>
       </c>
       <c r="Z15" t="n">
-        <v>506552.0</v>
+        <v>506552</v>
       </c>
       <c r="AA15" t="n">
-        <v>693703.0</v>
+        <v>693703</v>
       </c>
       <c r="AB15" t="n">
-        <v>147041.0</v>
+        <v>147041</v>
       </c>
       <c r="AC15" t="n">
-        <v>117467.0</v>
+        <v>117467</v>
       </c>
       <c r="AD15" t="n">
-        <v>790496.0</v>
+        <v>790496</v>
       </c>
       <c r="AE15" t="n">
-        <v>185009.0</v>
+        <v>185009</v>
       </c>
       <c r="AF15" t="n">
-        <v>265913.0</v>
+        <v>265913</v>
       </c>
       <c r="AG15" t="n">
-        <v>499854.0</v>
+        <v>499854</v>
       </c>
       <c r="AH15" t="n">
-        <v>209249.0</v>
+        <v>209249</v>
       </c>
       <c r="AI15" t="n">
-        <v>347083.0</v>
+        <v>347083</v>
       </c>
       <c r="AJ15" t="n">
-        <v>133949.0</v>
+        <v>133949</v>
       </c>
       <c r="AK15" t="n">
-        <v>834202.0</v>
+        <v>834202</v>
       </c>
       <c r="AL15" t="n">
-        <v>556537.0</v>
+        <v>556537</v>
       </c>
       <c r="AM15" t="n">
-        <v>147078.0</v>
+        <v>147078</v>
       </c>
       <c r="AN15" t="n">
-        <v>607614.0</v>
+        <v>607614</v>
       </c>
       <c r="AO15" t="n">
-        <v>8808155.0</v>
+        <v>8808155</v>
       </c>
       <c r="AP15" t="n">
-        <v>2828619.0</v>
+        <v>2828619</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.5759156E7</v>
+        <v>15759156</v>
       </c>
       <c r="AR15" t="n">
-        <v>3674692.0</v>
+        <v>3674692</v>
       </c>
       <c r="AS15" t="n">
-        <v>60895.0</v>
+        <v>60895</v>
       </c>
       <c r="AT15" t="n">
-        <v>67528.0</v>
+        <v>67528</v>
       </c>
       <c r="AU15" t="n">
-        <v>832185.0</v>
+        <v>832185</v>
       </c>
       <c r="AV15" t="n">
-        <v>414051.0</v>
+        <v>414051</v>
       </c>
       <c r="AW15" t="n">
-        <v>4654397.0</v>
+        <v>4654397</v>
       </c>
       <c r="AX15" t="n">
-        <v>167745.0</v>
+        <v>167745</v>
       </c>
       <c r="AY15" t="n">
-        <v>181725.0</v>
+        <v>181725</v>
       </c>
       <c r="AZ15" t="n">
-        <v>249984.0</v>
+        <v>249984</v>
       </c>
       <c r="BA15" t="n">
-        <v>701864.0</v>
+        <v>701864</v>
       </c>
       <c r="BB15" t="n">
-        <v>1124207.0</v>
+        <v>1124207</v>
       </c>
       <c r="BC15" t="n">
-        <v>391661.0</v>
+        <v>391661</v>
       </c>
       <c r="BD15" t="n">
-        <v>1620625.0</v>
+        <v>1620625</v>
       </c>
       <c r="BE15" t="n">
-        <v>589652.0</v>
+        <v>589652</v>
       </c>
       <c r="BF15" t="n">
-        <v>517025.0</v>
+        <v>517025</v>
       </c>
       <c r="BG15" t="n">
-        <v>335754.0</v>
+        <v>335754</v>
       </c>
       <c r="BH15" t="n">
-        <v>4089460.0</v>
+        <v>4089460</v>
       </c>
       <c r="BI15" t="n">
-        <v>850968.0</v>
+        <v>850968</v>
       </c>
       <c r="BJ15" t="n">
-        <v>5479282.0</v>
+        <v>5479282</v>
       </c>
       <c r="BK15" t="n">
-        <v>4270759.0</v>
+        <v>4270759</v>
       </c>
       <c r="BL15" t="n">
-        <v>2321981.0</v>
+        <v>2321981</v>
       </c>
       <c r="BM15" t="n">
-        <v>1839563.0</v>
+        <v>1839563</v>
       </c>
       <c r="BN15" t="n">
-        <v>2604866.0</v>
+        <v>2604866</v>
       </c>
       <c r="BO15" t="n">
-        <v>927199.0</v>
+        <v>927199</v>
       </c>
       <c r="BP15" t="n">
-        <v>3969881.0</v>
+        <v>3969881</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6571677.0</v>
+        <v>6571677</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2013.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2013.xlsx
@@ -658,7 +658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2013.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2013.xlsx
@@ -3,343 +3,340 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0191
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+  <si>
+    <t>0191
 Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
   <si>
-    <t xml:space="preserve">0192
+    <t>0192
 Pecuária, inclusive o apoio à pecuária</t>
   </si>
   <si>
-    <t xml:space="preserve">0280
+    <t>0280
 Produção florestal; pesca e aquicultura</t>
   </si>
   <si>
-    <t xml:space="preserve">0580
+    <t>0580
 Extração de carvão mineral e de minerais não-metálicos</t>
   </si>
   <si>
-    <t xml:space="preserve">0680
+    <t>0680
 Extração de petróleo e gás, inclusive as atividades de apoio</t>
   </si>
   <si>
-    <t xml:space="preserve">0791
+    <t>0791
 Extração de minério de ferro, inclusive beneficiamentos e a aglomeração</t>
   </si>
   <si>
-    <t xml:space="preserve">0792
+    <t>0792
 Extração de minerais metálicos não-ferrosos, inclusive beneficiamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">1091
+    <t>1091
 Abate e produtos de carne, inclusive os produtos do laticínio e da pesca</t>
   </si>
   <si>
-    <t xml:space="preserve">1092
+    <t>1092
 Fabricação e refino de açúcar</t>
   </si>
   <si>
-    <t xml:space="preserve">1093
+    <t>1093
 Outros produtos alimentares</t>
   </si>
   <si>
-    <t xml:space="preserve">1100
+    <t>1100
 Fabricação de bebidas</t>
   </si>
   <si>
-    <t xml:space="preserve">1200
+    <t>1200
 Fabricação de produtos do fumo</t>
   </si>
   <si>
-    <t xml:space="preserve">1300
+    <t>1300
 Fabricação de produtos têxteis</t>
   </si>
   <si>
-    <t xml:space="preserve">1400
+    <t>1400
 Confecção de artefatos do vestuário e acessórios</t>
   </si>
   <si>
-    <t xml:space="preserve">1500
+    <t>1500
 Fabricação de calçados e de artefatos de couro</t>
   </si>
   <si>
-    <t xml:space="preserve">1600
+    <t>1600
 Fabricação de produtos da madeira</t>
   </si>
   <si>
-    <t xml:space="preserve">1700
+    <t>1700
 Fabricação de celulose, papel e produtos de papel</t>
   </si>
   <si>
-    <t xml:space="preserve">1800
+    <t>1800
 Impressão e reprodução de gravações</t>
   </si>
   <si>
-    <t xml:space="preserve">1991
+    <t>1991
 Refino de petróleo e coquerias</t>
   </si>
   <si>
-    <t xml:space="preserve">1992
+    <t>1992
 Fabricação de biocombustíveis</t>
   </si>
   <si>
-    <t xml:space="preserve">2091
+    <t>2091
 Fabricação de químicos orgânicos e inorgânicos, resinas e elastômeros</t>
   </si>
   <si>
-    <t xml:space="preserve">2092
+    <t>2092
 Fabricação de defensivos, desinfestantes, tintas e químicos diversos</t>
   </si>
   <si>
-    <t xml:space="preserve">2093
+    <t>2093
 Fabricação de produtos de limpeza, cosméticos/perfumaria e higiene pessoal</t>
   </si>
   <si>
-    <t xml:space="preserve">2100
+    <t>2100
 Fabricação de produtos farmoquímicos e farmacêuticos</t>
   </si>
   <si>
-    <t xml:space="preserve">2200
+    <t>2200
 Fabricação de produtos de borracha e de material plástico</t>
   </si>
   <si>
-    <t xml:space="preserve">2300
+    <t>2300
 Fabricação de produtos de minerais não-metálicos</t>
   </si>
   <si>
-    <t xml:space="preserve">2491
+    <t>2491
 Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</t>
   </si>
   <si>
-    <t xml:space="preserve">2492
+    <t>2492
 Metalurgia de metais não-ferrosos e a fundição de metais</t>
   </si>
   <si>
-    <t xml:space="preserve">2500
+    <t>2500
 Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">2600
+    <t>2600
 Fabricação de equipamentos de informática, produtos eletrônicos e ópticos</t>
   </si>
   <si>
-    <t xml:space="preserve">2700
+    <t>2700
 Fabricação de máquinas e equipamentos elétricos</t>
   </si>
   <si>
-    <t xml:space="preserve">2800
+    <t>2800
 Fabricação de máquinas e equipamentos mecânicos</t>
   </si>
   <si>
-    <t xml:space="preserve">2991
+    <t>2991
 Fabricação de automóveis, caminhões e ônibus, exceto peças</t>
   </si>
   <si>
-    <t xml:space="preserve">2992
+    <t>2992
 Fabricação de peças e acessórios para veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">3000
+    <t>3000
 Fabricação de outros equipamentos de transporte, exceto veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">3180
+    <t>3180
 Fabricação de móveis e de produtos de indústrias diversas</t>
   </si>
   <si>
-    <t xml:space="preserve">3300
+    <t>3300
 Manutenção, reparação e instalação de máquinas e equipamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">3500
+    <t>3500
 Energia elétrica, gás natural e outras utilidades</t>
   </si>
   <si>
-    <t xml:space="preserve">3680
+    <t>3680
 Água, esgoto e gestão de resíduos</t>
   </si>
   <si>
-    <t xml:space="preserve">4180
+    <t>4180
 Construção</t>
   </si>
   <si>
-    <t xml:space="preserve">4500
+    <t>4500
 Comércio e reparação de veículos automotores e motocicletas</t>
   </si>
   <si>
-    <t xml:space="preserve">4680
+    <t>4680
 Comércio por atacado e a varejo, exceto veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">4900
+    <t>4900
 Transporte terrestre</t>
   </si>
   <si>
-    <t xml:space="preserve">5000
+    <t>5000
 Transporte aquaviário</t>
   </si>
   <si>
-    <t xml:space="preserve">5100
+    <t>5100
 Transporte aéreo</t>
   </si>
   <si>
-    <t xml:space="preserve">5280
+    <t>5280
 Armazenamento, atividades auxiliares dos transportes e correio</t>
   </si>
   <si>
-    <t xml:space="preserve">5500
+    <t>5500
 Alojamento</t>
   </si>
   <si>
-    <t xml:space="preserve">5600
+    <t>5600
 Alimentação</t>
   </si>
   <si>
-    <t xml:space="preserve">5800
+    <t>5800
 Edição e edição integrada à impressão</t>
   </si>
   <si>
-    <t xml:space="preserve">5980
+    <t>5980
 Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</t>
   </si>
   <si>
-    <t xml:space="preserve">6100
+    <t>6100
 Telecomunicações</t>
   </si>
   <si>
-    <t xml:space="preserve">6280
+    <t>6280
 Desenvolvimento de sistemas e outros serviços de informação</t>
   </si>
   <si>
-    <t xml:space="preserve">6480
+    <t>6480
 Intermediação financeira, seguros e previdência complementar</t>
   </si>
   <si>
-    <t xml:space="preserve">6800
+    <t>6800
 Atividades imobiliárias</t>
   </si>
   <si>
-    <t xml:space="preserve">6980
+    <t>6980
 Atividades jurídicas, contábeis, consultoria e sedes de empresas</t>
   </si>
   <si>
-    <t xml:space="preserve">7180
+    <t>7180
 Serviços de arquitetura, engenharia, testes/análises técnicas e P &amp; D</t>
   </si>
   <si>
-    <t xml:space="preserve">7380
+    <t>7380
 Outras atividades profissionais, científicas e técnicas</t>
   </si>
   <si>
-    <t xml:space="preserve">7700
+    <t>7700
 Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</t>
   </si>
   <si>
-    <t xml:space="preserve">7880
+    <t>7880
 Outras atividades administrativas e serviços complementares</t>
   </si>
   <si>
-    <t xml:space="preserve">8000
+    <t>8000
 Atividades de vigilância, segurança e investigação</t>
   </si>
   <si>
-    <t xml:space="preserve">8400
+    <t>8400
 Administração pública, defesa e seguridade social</t>
   </si>
   <si>
-    <t xml:space="preserve">8591
+    <t>8591
 Educação pública</t>
   </si>
   <si>
-    <t xml:space="preserve">8592
+    <t>8592
 Educação privada</t>
   </si>
   <si>
-    <t xml:space="preserve">8691
+    <t>8691
 Saúde pública</t>
   </si>
   <si>
-    <t xml:space="preserve">8692
+    <t>8692
 Saúde privada</t>
   </si>
   <si>
-    <t xml:space="preserve">9080
+    <t>9080
 Atividades artísticas, criativas e de espetáculos</t>
   </si>
   <si>
-    <t xml:space="preserve">9480
+    <t>9480
 Organizações associativas e outros serviços pessoais</t>
   </si>
   <si>
-    <t xml:space="preserve">9700
+    <t>9700
 Serviços domésticos</t>
   </si>
   <si>
-    <t xml:space="preserve">Valor adicionado bruto ( PIB )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remunerações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salários</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuições sociais efetivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previdência oficial /FGTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previdência privada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuições sociais imputadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente operacional bruto e rendimento misto bruto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rendimento misto bruto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente operacional bruto (EOB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros impostos sobre a produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros subsídios à produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor da produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fator trabalho (ocupações)</t>
+    <t>Valor adicionado bruto ( PIB )</t>
+  </si>
+  <si>
+    <t>Remunerações</t>
+  </si>
+  <si>
+    <t>Salários</t>
+  </si>
+  <si>
+    <t>Contribuições sociais efetivas</t>
+  </si>
+  <si>
+    <t>Previdência oficial /FGTS</t>
+  </si>
+  <si>
+    <t>Previdência privada</t>
+  </si>
+  <si>
+    <t>Contribuições sociais imputadas</t>
+  </si>
+  <si>
+    <t>Excedente operacional bruto e rendimento misto bruto</t>
+  </si>
+  <si>
+    <t>Rendimento misto bruto</t>
+  </si>
+  <si>
+    <t>Excedente operacional bruto (EOB)</t>
+  </si>
+  <si>
+    <t>Outros impostos sobre a produção</t>
+  </si>
+  <si>
+    <t>Outros subsídios à produção</t>
+  </si>
+  <si>
+    <t>Valor da produção</t>
+  </si>
+  <si>
+    <t>Fator trabalho (ocupações)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +347,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -368,3435 +365,3151 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="n">
-        <v>157113</v>
+        <v>157113.0</v>
       </c>
       <c r="C2" t="n">
-        <v>61446</v>
+        <v>61446.0</v>
       </c>
       <c r="D2" t="n">
-        <v>21731</v>
+        <v>21731.0</v>
       </c>
       <c r="E2" t="n">
-        <v>8866</v>
+        <v>8866.0</v>
       </c>
       <c r="F2" t="n">
-        <v>124623</v>
+        <v>124623.0</v>
       </c>
       <c r="G2" t="n">
-        <v>53671</v>
+        <v>53671.0</v>
       </c>
       <c r="H2" t="n">
-        <v>2274</v>
+        <v>2274.0</v>
       </c>
       <c r="I2" t="n">
-        <v>31035</v>
+        <v>31035.0</v>
       </c>
       <c r="J2" t="n">
-        <v>8479</v>
+        <v>8479.0</v>
       </c>
       <c r="K2" t="n">
-        <v>44776</v>
+        <v>44776.0</v>
       </c>
       <c r="L2" t="n">
-        <v>19106</v>
+        <v>19106.0</v>
       </c>
       <c r="M2" t="n">
-        <v>4757</v>
+        <v>4757.0</v>
       </c>
       <c r="N2" t="n">
-        <v>13652</v>
+        <v>13652.0</v>
       </c>
       <c r="O2" t="n">
-        <v>24872</v>
+        <v>24872.0</v>
       </c>
       <c r="P2" t="n">
-        <v>13452</v>
+        <v>13452.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>10169</v>
+        <v>10169.0</v>
       </c>
       <c r="R2" t="n">
-        <v>17282</v>
+        <v>17282.0</v>
       </c>
       <c r="S2" t="n">
-        <v>9575</v>
+        <v>9575.0</v>
       </c>
       <c r="T2" t="n">
-        <v>-28223</v>
+        <v>-28223.0</v>
       </c>
       <c r="U2" t="n">
-        <v>6201</v>
+        <v>6201.0</v>
       </c>
       <c r="V2" t="n">
-        <v>15667</v>
+        <v>15667.0</v>
       </c>
       <c r="W2" t="n">
-        <v>12980</v>
+        <v>12980.0</v>
       </c>
       <c r="X2" t="n">
-        <v>8160</v>
+        <v>8160.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>22533</v>
+        <v>22533.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>25724</v>
+        <v>25724.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>29101</v>
+        <v>29101.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>24848</v>
+        <v>24848.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>9202</v>
+        <v>9202.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>34733</v>
+        <v>34733.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>17941</v>
+        <v>17941.0</v>
       </c>
       <c r="AF2" t="n">
-        <v>18271</v>
+        <v>18271.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>38768</v>
+        <v>38768.0</v>
       </c>
       <c r="AH2" t="n">
-        <v>35485</v>
+        <v>35485.0</v>
       </c>
       <c r="AI2" t="n">
-        <v>25612</v>
+        <v>25612.0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11836</v>
+        <v>11836.0</v>
       </c>
       <c r="AK2" t="n">
-        <v>30673</v>
+        <v>30673.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>22066</v>
+        <v>22066.0</v>
       </c>
       <c r="AM2" t="n">
-        <v>57032</v>
+        <v>57032.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>35786</v>
+        <v>35786.0</v>
       </c>
       <c r="AO2" t="n">
-        <v>290641</v>
+        <v>290641.0</v>
       </c>
       <c r="AP2" t="n">
-        <v>84636</v>
+        <v>84636.0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>529451</v>
+        <v>529451.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>130316</v>
+        <v>130316.0</v>
       </c>
       <c r="AS2" t="n">
-        <v>6023</v>
+        <v>6023.0</v>
       </c>
       <c r="AT2" t="n">
-        <v>8412</v>
+        <v>8412.0</v>
       </c>
       <c r="AU2" t="n">
-        <v>58670</v>
+        <v>58670.0</v>
       </c>
       <c r="AV2" t="n">
-        <v>12445</v>
+        <v>12445.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>95622</v>
+        <v>95622.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>9218</v>
+        <v>9218.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>17347</v>
+        <v>17347.0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>62629</v>
+        <v>62629.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>68315</v>
+        <v>68315.0</v>
       </c>
       <c r="BB2" t="n">
-        <v>272571</v>
+        <v>272571.0</v>
       </c>
       <c r="BC2" t="n">
-        <v>419202</v>
+        <v>419202.0</v>
       </c>
       <c r="BD2" t="n">
-        <v>109657</v>
+        <v>109657.0</v>
       </c>
       <c r="BE2" t="n">
-        <v>43526</v>
+        <v>43526.0</v>
       </c>
       <c r="BF2" t="n">
-        <v>25762</v>
+        <v>25762.0</v>
       </c>
       <c r="BG2" t="n">
-        <v>30986</v>
+        <v>30986.0</v>
       </c>
       <c r="BH2" t="n">
-        <v>127086</v>
+        <v>127086.0</v>
       </c>
       <c r="BI2" t="n">
-        <v>27194</v>
+        <v>27194.0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>447604</v>
+        <v>447604.0</v>
       </c>
       <c r="BK2" t="n">
-        <v>201645</v>
+        <v>201645.0</v>
       </c>
       <c r="BL2" t="n">
-        <v>56703</v>
+        <v>56703.0</v>
       </c>
       <c r="BM2" t="n">
-        <v>96938</v>
+        <v>96938.0</v>
       </c>
       <c r="BN2" t="n">
-        <v>104106</v>
+        <v>104106.0</v>
       </c>
       <c r="BO2" t="n">
-        <v>17629</v>
+        <v>17629.0</v>
       </c>
       <c r="BP2" t="n">
-        <v>64495</v>
+        <v>64495.0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>53656</v>
+        <v>53656.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="n">
-        <v>23857</v>
+        <v>23857.0</v>
       </c>
       <c r="C3" t="n">
-        <v>19173</v>
+        <v>19173.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2164</v>
+        <v>2164.0</v>
       </c>
       <c r="E3" t="n">
-        <v>3875</v>
+        <v>3875.0</v>
       </c>
       <c r="F3" t="n">
-        <v>19150</v>
+        <v>19150.0</v>
       </c>
       <c r="G3" t="n">
-        <v>6806</v>
+        <v>6806.0</v>
       </c>
       <c r="H3" t="n">
-        <v>2018</v>
+        <v>2018.0</v>
       </c>
       <c r="I3" t="n">
-        <v>20075</v>
+        <v>20075.0</v>
       </c>
       <c r="J3" t="n">
-        <v>9203</v>
+        <v>9203.0</v>
       </c>
       <c r="K3" t="n">
-        <v>25733</v>
+        <v>25733.0</v>
       </c>
       <c r="L3" t="n">
-        <v>7251</v>
+        <v>7251.0</v>
       </c>
       <c r="M3" t="n">
-        <v>1336</v>
+        <v>1336.0</v>
       </c>
       <c r="N3" t="n">
-        <v>9669</v>
+        <v>9669.0</v>
       </c>
       <c r="O3" t="n">
-        <v>17221</v>
+        <v>17221.0</v>
       </c>
       <c r="P3" t="n">
-        <v>9382</v>
+        <v>9382.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6028</v>
+        <v>6028.0</v>
       </c>
       <c r="R3" t="n">
-        <v>9625</v>
+        <v>9625.0</v>
       </c>
       <c r="S3" t="n">
-        <v>5414</v>
+        <v>5414.0</v>
       </c>
       <c r="T3" t="n">
-        <v>6803</v>
+        <v>6803.0</v>
       </c>
       <c r="U3" t="n">
-        <v>4311</v>
+        <v>4311.0</v>
       </c>
       <c r="V3" t="n">
-        <v>9282</v>
+        <v>9282.0</v>
       </c>
       <c r="W3" t="n">
-        <v>8124</v>
+        <v>8124.0</v>
       </c>
       <c r="X3" t="n">
-        <v>4773</v>
+        <v>4773.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>8752</v>
+        <v>8752.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>19286</v>
+        <v>19286.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>17654</v>
+        <v>17654.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>12282</v>
+        <v>12282.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>6144</v>
+        <v>6144.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>22128</v>
+        <v>22128.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>10325</v>
+        <v>10325.0</v>
       </c>
       <c r="AF3" t="n">
-        <v>13337</v>
+        <v>13337.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>27595</v>
+        <v>27595.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>19759</v>
+        <v>19759.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>20145</v>
+        <v>20145.0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8568</v>
+        <v>8568.0</v>
       </c>
       <c r="AK3" t="n">
-        <v>14413</v>
+        <v>14413.0</v>
       </c>
       <c r="AL3" t="n">
-        <v>11143</v>
+        <v>11143.0</v>
       </c>
       <c r="AM3" t="n">
-        <v>14719</v>
+        <v>14719.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>14030</v>
+        <v>14030.0</v>
       </c>
       <c r="AO3" t="n">
-        <v>128751</v>
+        <v>128751.0</v>
       </c>
       <c r="AP3" t="n">
-        <v>38918</v>
+        <v>38918.0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>249328</v>
+        <v>249328.0</v>
       </c>
       <c r="AR3" t="n">
-        <v>64546</v>
+        <v>64546.0</v>
       </c>
       <c r="AS3" t="n">
-        <v>3725</v>
+        <v>3725.0</v>
       </c>
       <c r="AT3" t="n">
-        <v>6421</v>
+        <v>6421.0</v>
       </c>
       <c r="AU3" t="n">
-        <v>35398</v>
+        <v>35398.0</v>
       </c>
       <c r="AV3" t="n">
-        <v>7468</v>
+        <v>7468.0</v>
       </c>
       <c r="AW3" t="n">
-        <v>38349</v>
+        <v>38349.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>6659</v>
+        <v>6659.0</v>
       </c>
       <c r="AY3" t="n">
-        <v>9536</v>
+        <v>9536.0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>16207</v>
+        <v>16207.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>34306</v>
+        <v>34306.0</v>
       </c>
       <c r="BB3" t="n">
-        <v>119723</v>
+        <v>119723.0</v>
       </c>
       <c r="BC3" t="n">
-        <v>5678</v>
+        <v>5678.0</v>
       </c>
       <c r="BD3" t="n">
-        <v>45611</v>
+        <v>45611.0</v>
       </c>
       <c r="BE3" t="n">
-        <v>20908</v>
+        <v>20908.0</v>
       </c>
       <c r="BF3" t="n">
-        <v>10169</v>
+        <v>10169.0</v>
       </c>
       <c r="BG3" t="n">
-        <v>9453</v>
+        <v>9453.0</v>
       </c>
       <c r="BH3" t="n">
-        <v>83216</v>
+        <v>83216.0</v>
       </c>
       <c r="BI3" t="n">
-        <v>22918</v>
+        <v>22918.0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>390700</v>
+        <v>390700.0</v>
       </c>
       <c r="BK3" t="n">
-        <v>192717</v>
+        <v>192717.0</v>
       </c>
       <c r="BL3" t="n">
-        <v>49724</v>
+        <v>49724.0</v>
       </c>
       <c r="BM3" t="n">
-        <v>92562</v>
+        <v>92562.0</v>
       </c>
       <c r="BN3" t="n">
-        <v>49995</v>
+        <v>49995.0</v>
       </c>
       <c r="BO3" t="n">
-        <v>9169</v>
+        <v>9169.0</v>
       </c>
       <c r="BP3" t="n">
-        <v>38349</v>
+        <v>38349.0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>53656</v>
+        <v>53656.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="n">
-        <v>20433</v>
+        <v>20433.0</v>
       </c>
       <c r="C4" t="n">
-        <v>16651</v>
+        <v>16651.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1827</v>
+        <v>1827.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3048</v>
+        <v>3048.0</v>
       </c>
       <c r="F4" t="n">
-        <v>13944</v>
+        <v>13944.0</v>
       </c>
       <c r="G4" t="n">
-        <v>4997</v>
+        <v>4997.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1589</v>
+        <v>1589.0</v>
       </c>
       <c r="I4" t="n">
-        <v>15528</v>
+        <v>15528.0</v>
       </c>
       <c r="J4" t="n">
-        <v>6614</v>
+        <v>6614.0</v>
       </c>
       <c r="K4" t="n">
-        <v>20026</v>
+        <v>20026.0</v>
       </c>
       <c r="L4" t="n">
-        <v>5507</v>
+        <v>5507.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1008</v>
+        <v>1008.0</v>
       </c>
       <c r="N4" t="n">
-        <v>7801</v>
+        <v>7801.0</v>
       </c>
       <c r="O4" t="n">
-        <v>13922</v>
+        <v>13922.0</v>
       </c>
       <c r="P4" t="n">
-        <v>7874</v>
+        <v>7874.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4807</v>
+        <v>4807.0</v>
       </c>
       <c r="R4" t="n">
-        <v>7507</v>
+        <v>7507.0</v>
       </c>
       <c r="S4" t="n">
-        <v>4236</v>
+        <v>4236.0</v>
       </c>
       <c r="T4" t="n">
-        <v>4596</v>
+        <v>4596.0</v>
       </c>
       <c r="U4" t="n">
-        <v>3133</v>
+        <v>3133.0</v>
       </c>
       <c r="V4" t="n">
-        <v>6823</v>
+        <v>6823.0</v>
       </c>
       <c r="W4" t="n">
-        <v>6044</v>
+        <v>6044.0</v>
       </c>
       <c r="X4" t="n">
-        <v>3653</v>
+        <v>3653.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>6581</v>
+        <v>6581.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>14903</v>
+        <v>14903.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>14050</v>
+        <v>14050.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>9342</v>
+        <v>9342.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>4723</v>
+        <v>4723.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>17414</v>
+        <v>17414.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>8095</v>
+        <v>8095.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>10495</v>
+        <v>10495.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>21482</v>
+        <v>21482.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>15010</v>
+        <v>15010.0</v>
       </c>
       <c r="AI4" t="n">
-        <v>15864</v>
+        <v>15864.0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7091</v>
+        <v>7091.0</v>
       </c>
       <c r="AK4" t="n">
-        <v>11278</v>
+        <v>11278.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>8976</v>
+        <v>8976.0</v>
       </c>
       <c r="AM4" t="n">
-        <v>10809</v>
+        <v>10809.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>10796</v>
+        <v>10796.0</v>
       </c>
       <c r="AO4" t="n">
-        <v>103752</v>
+        <v>103752.0</v>
       </c>
       <c r="AP4" t="n">
-        <v>31173</v>
+        <v>31173.0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>197892</v>
+        <v>197892.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>52445</v>
+        <v>52445.0</v>
       </c>
       <c r="AS4" t="n">
-        <v>3164</v>
+        <v>3164.0</v>
       </c>
       <c r="AT4" t="n">
-        <v>5308</v>
+        <v>5308.0</v>
       </c>
       <c r="AU4" t="n">
-        <v>26978</v>
+        <v>26978.0</v>
       </c>
       <c r="AV4" t="n">
-        <v>6359</v>
+        <v>6359.0</v>
       </c>
       <c r="AW4" t="n">
-        <v>32146</v>
+        <v>32146.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>5084</v>
+        <v>5084.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>7263</v>
+        <v>7263.0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12139</v>
+        <v>12139.0</v>
       </c>
       <c r="BA4" t="n">
-        <v>27336</v>
+        <v>27336.0</v>
       </c>
       <c r="BB4" t="n">
-        <v>90611</v>
+        <v>90611.0</v>
       </c>
       <c r="BC4" t="n">
-        <v>4365</v>
+        <v>4365.0</v>
       </c>
       <c r="BD4" t="n">
-        <v>35822</v>
+        <v>35822.0</v>
       </c>
       <c r="BE4" t="n">
-        <v>16456</v>
+        <v>16456.0</v>
       </c>
       <c r="BF4" t="n">
-        <v>8241</v>
+        <v>8241.0</v>
       </c>
       <c r="BG4" t="n">
-        <v>7522</v>
+        <v>7522.0</v>
       </c>
       <c r="BH4" t="n">
-        <v>66375</v>
+        <v>66375.0</v>
       </c>
       <c r="BI4" t="n">
-        <v>17719</v>
+        <v>17719.0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>281204</v>
+        <v>281204.0</v>
       </c>
       <c r="BK4" t="n">
-        <v>163202</v>
+        <v>163202.0</v>
       </c>
       <c r="BL4" t="n">
-        <v>41396</v>
+        <v>41396.0</v>
       </c>
       <c r="BM4" t="n">
-        <v>74965</v>
+        <v>74965.0</v>
       </c>
       <c r="BN4" t="n">
-        <v>43260</v>
+        <v>43260.0</v>
       </c>
       <c r="BO4" t="n">
-        <v>7937</v>
+        <v>7937.0</v>
       </c>
       <c r="BP4" t="n">
-        <v>32790</v>
+        <v>32790.0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>50829</v>
+        <v>50829.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="n">
-        <v>3424</v>
+        <v>3424.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2522</v>
+        <v>2522.0</v>
       </c>
       <c r="D5" t="n">
-        <v>337</v>
+        <v>337.0</v>
       </c>
       <c r="E5" t="n">
-        <v>827</v>
+        <v>827.0</v>
       </c>
       <c r="F5" t="n">
-        <v>5206</v>
+        <v>5206.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1809</v>
+        <v>1809.0</v>
       </c>
       <c r="H5" t="n">
-        <v>429</v>
+        <v>429.0</v>
       </c>
       <c r="I5" t="n">
-        <v>4547</v>
+        <v>4547.0</v>
       </c>
       <c r="J5" t="n">
-        <v>2589</v>
+        <v>2589.0</v>
       </c>
       <c r="K5" t="n">
-        <v>5707</v>
+        <v>5707.0</v>
       </c>
       <c r="L5" t="n">
-        <v>1744</v>
+        <v>1744.0</v>
       </c>
       <c r="M5" t="n">
-        <v>328</v>
+        <v>328.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1868</v>
+        <v>1868.0</v>
       </c>
       <c r="O5" t="n">
-        <v>3299</v>
+        <v>3299.0</v>
       </c>
       <c r="P5" t="n">
-        <v>1508</v>
+        <v>1508.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1221</v>
+        <v>1221.0</v>
       </c>
       <c r="R5" t="n">
-        <v>2118</v>
+        <v>2118.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1178</v>
+        <v>1178.0</v>
       </c>
       <c r="T5" t="n">
-        <v>2207</v>
+        <v>2207.0</v>
       </c>
       <c r="U5" t="n">
-        <v>1178</v>
+        <v>1178.0</v>
       </c>
       <c r="V5" t="n">
-        <v>2459</v>
+        <v>2459.0</v>
       </c>
       <c r="W5" t="n">
-        <v>2080</v>
+        <v>2080.0</v>
       </c>
       <c r="X5" t="n">
-        <v>1120</v>
+        <v>1120.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2171</v>
+        <v>2171.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>4383</v>
+        <v>4383.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>3604</v>
+        <v>3604.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>2940</v>
+        <v>2940.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1421</v>
+        <v>1421.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>4714</v>
+        <v>4714.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>2230</v>
+        <v>2230.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2842</v>
+        <v>2842.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>6113</v>
+        <v>6113.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>4749</v>
+        <v>4749.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>4281</v>
+        <v>4281.0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1477</v>
+        <v>1477.0</v>
       </c>
       <c r="AK5" t="n">
-        <v>3135</v>
+        <v>3135.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>2167</v>
+        <v>2167.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>3910</v>
+        <v>3910.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>3234</v>
+        <v>3234.0</v>
       </c>
       <c r="AO5" t="n">
-        <v>24999</v>
+        <v>24999.0</v>
       </c>
       <c r="AP5" t="n">
-        <v>7745</v>
+        <v>7745.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51436</v>
+        <v>51436.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>12101</v>
+        <v>12101.0</v>
       </c>
       <c r="AS5" t="n">
-        <v>561</v>
+        <v>561.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>1113</v>
+        <v>1113.0</v>
       </c>
       <c r="AU5" t="n">
-        <v>8420</v>
+        <v>8420.0</v>
       </c>
       <c r="AV5" t="n">
-        <v>1109</v>
+        <v>1109.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>6203</v>
+        <v>6203.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>1575</v>
+        <v>1575.0</v>
       </c>
       <c r="AY5" t="n">
-        <v>2273</v>
+        <v>2273.0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4068</v>
+        <v>4068.0</v>
       </c>
       <c r="BA5" t="n">
-        <v>6970</v>
+        <v>6970.0</v>
       </c>
       <c r="BB5" t="n">
-        <v>29112</v>
+        <v>29112.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>1313</v>
+        <v>1313.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>9789</v>
+        <v>9789.0</v>
       </c>
       <c r="BE5" t="n">
-        <v>4452</v>
+        <v>4452.0</v>
       </c>
       <c r="BF5" t="n">
-        <v>1928</v>
+        <v>1928.0</v>
       </c>
       <c r="BG5" t="n">
-        <v>1931</v>
+        <v>1931.0</v>
       </c>
       <c r="BH5" t="n">
-        <v>16841</v>
+        <v>16841.0</v>
       </c>
       <c r="BI5" t="n">
-        <v>5199</v>
+        <v>5199.0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>54884</v>
+        <v>54884.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>26749</v>
+        <v>26749.0</v>
       </c>
       <c r="BL5" t="n">
-        <v>8328</v>
+        <v>8328.0</v>
       </c>
       <c r="BM5" t="n">
-        <v>12580</v>
+        <v>12580.0</v>
       </c>
       <c r="BN5" t="n">
-        <v>6735</v>
+        <v>6735.0</v>
       </c>
       <c r="BO5" t="n">
-        <v>1232</v>
+        <v>1232.0</v>
       </c>
       <c r="BP5" t="n">
-        <v>5559</v>
+        <v>5559.0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2827</v>
+        <v>2827.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="n">
-        <v>3423</v>
+        <v>3423.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2521</v>
+        <v>2521.0</v>
       </c>
       <c r="D6" t="n">
-        <v>333</v>
+        <v>333.0</v>
       </c>
       <c r="E6" t="n">
-        <v>771</v>
+        <v>771.0</v>
       </c>
       <c r="F6" t="n">
-        <v>4286</v>
+        <v>4286.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1506</v>
+        <v>1506.0</v>
       </c>
       <c r="H6" t="n">
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="I6" t="n">
-        <v>4381</v>
+        <v>4381.0</v>
       </c>
       <c r="J6" t="n">
-        <v>2547</v>
+        <v>2547.0</v>
       </c>
       <c r="K6" t="n">
-        <v>5466</v>
+        <v>5466.0</v>
       </c>
       <c r="L6" t="n">
-        <v>1594</v>
+        <v>1594.0</v>
       </c>
       <c r="M6" t="n">
-        <v>307</v>
+        <v>307.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1852</v>
+        <v>1852.0</v>
       </c>
       <c r="O6" t="n">
-        <v>3277</v>
+        <v>3277.0</v>
       </c>
       <c r="P6" t="n">
-        <v>1486</v>
+        <v>1486.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1187</v>
+        <v>1187.0</v>
       </c>
       <c r="R6" t="n">
-        <v>1954</v>
+        <v>1954.0</v>
       </c>
       <c r="S6" t="n">
-        <v>1120</v>
+        <v>1120.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1411</v>
+        <v>1411.0</v>
       </c>
       <c r="U6" t="n">
-        <v>1133</v>
+        <v>1133.0</v>
       </c>
       <c r="V6" t="n">
-        <v>2084</v>
+        <v>2084.0</v>
       </c>
       <c r="W6" t="n">
-        <v>1758</v>
+        <v>1758.0</v>
       </c>
       <c r="X6" t="n">
-        <v>1052</v>
+        <v>1052.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1992</v>
+        <v>1992.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>4148</v>
+        <v>4148.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>3472</v>
+        <v>3472.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>2700</v>
+        <v>2700.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1358</v>
+        <v>1358.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>4491</v>
+        <v>4491.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>2078</v>
+        <v>2078.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>2637</v>
+        <v>2637.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>5773</v>
+        <v>5773.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>4330</v>
+        <v>4330.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>4094</v>
+        <v>4094.0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1370</v>
+        <v>1370.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>3034</v>
+        <v>3034.0</v>
       </c>
       <c r="AL6" t="n">
-        <v>2060</v>
+        <v>2060.0</v>
       </c>
       <c r="AM6" t="n">
-        <v>3233</v>
+        <v>3233.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>3131</v>
+        <v>3131.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>24145</v>
+        <v>24145.0</v>
       </c>
       <c r="AP6" t="n">
-        <v>7653</v>
+        <v>7653.0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>50389</v>
+        <v>50389.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>11769</v>
+        <v>11769.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>538</v>
+        <v>538.0</v>
       </c>
       <c r="AT6" t="n">
-        <v>998</v>
+        <v>998.0</v>
       </c>
       <c r="AU6" t="n">
-        <v>7772</v>
+        <v>7772.0</v>
       </c>
       <c r="AV6" t="n">
-        <v>1071</v>
+        <v>1071.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>6137</v>
+        <v>6137.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>1459</v>
+        <v>1459.0</v>
       </c>
       <c r="AY6" t="n">
-        <v>2061</v>
+        <v>2061.0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3578</v>
+        <v>3578.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>6482</v>
+        <v>6482.0</v>
       </c>
       <c r="BB6" t="n">
-        <v>24092</v>
+        <v>24092.0</v>
       </c>
       <c r="BC6" t="n">
-        <v>1243</v>
+        <v>1243.0</v>
       </c>
       <c r="BD6" t="n">
-        <v>9083</v>
+        <v>9083.0</v>
       </c>
       <c r="BE6" t="n">
-        <v>4341</v>
+        <v>4341.0</v>
       </c>
       <c r="BF6" t="n">
-        <v>1898</v>
+        <v>1898.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>1886</v>
+        <v>1886.0</v>
       </c>
       <c r="BH6" t="n">
-        <v>16435</v>
+        <v>16435.0</v>
       </c>
       <c r="BI6" t="n">
-        <v>5101</v>
+        <v>5101.0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>54175</v>
+        <v>54175.0</v>
       </c>
       <c r="BK6" t="n">
-        <v>26686</v>
+        <v>26686.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>8320</v>
+        <v>8320.0</v>
       </c>
       <c r="BM6" t="n">
-        <v>12572</v>
+        <v>12572.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>6497</v>
+        <v>6497.0</v>
       </c>
       <c r="BO6" t="n">
-        <v>1215</v>
+        <v>1215.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>5465</v>
+        <v>5465.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2827</v>
+        <v>2827.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="E7" t="n">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="F7" t="n">
-        <v>920</v>
+        <v>920.0</v>
       </c>
       <c r="G7" t="n">
-        <v>303</v>
+        <v>303.0</v>
       </c>
       <c r="H7" t="n">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="I7" t="n">
-        <v>166</v>
+        <v>166.0</v>
       </c>
       <c r="J7" t="n">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="K7" t="n">
-        <v>241</v>
+        <v>241.0</v>
       </c>
       <c r="L7" t="n">
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="M7" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="N7" t="n">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="O7" t="n">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="P7" t="n">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="R7" t="n">
-        <v>164</v>
+        <v>164.0</v>
       </c>
       <c r="S7" t="n">
-        <v>58</v>
+        <v>58.0</v>
       </c>
       <c r="T7" t="n">
-        <v>796</v>
+        <v>796.0</v>
       </c>
       <c r="U7" t="n">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="V7" t="n">
-        <v>375</v>
+        <v>375.0</v>
       </c>
       <c r="W7" t="n">
-        <v>322</v>
+        <v>322.0</v>
       </c>
       <c r="X7" t="n">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>179</v>
+        <v>179.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>235</v>
+        <v>235.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>132</v>
+        <v>132.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>240</v>
+        <v>240.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>63</v>
+        <v>63.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>223</v>
+        <v>223.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>152</v>
+        <v>152.0</v>
       </c>
       <c r="AF7" t="n">
-        <v>205</v>
+        <v>205.0</v>
       </c>
       <c r="AG7" t="n">
-        <v>340</v>
+        <v>340.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>419</v>
+        <v>419.0</v>
       </c>
       <c r="AI7" t="n">
-        <v>187</v>
+        <v>187.0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>107</v>
+        <v>107.0</v>
       </c>
       <c r="AK7" t="n">
-        <v>101</v>
+        <v>101.0</v>
       </c>
       <c r="AL7" t="n">
-        <v>107</v>
+        <v>107.0</v>
       </c>
       <c r="AM7" t="n">
-        <v>677</v>
+        <v>677.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>103</v>
+        <v>103.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>854</v>
+        <v>854.0</v>
       </c>
       <c r="AP7" t="n">
-        <v>92</v>
+        <v>92.0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1047</v>
+        <v>1047.0</v>
       </c>
       <c r="AR7" t="n">
-        <v>332</v>
+        <v>332.0</v>
       </c>
       <c r="AS7" t="n">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="AT7" t="n">
-        <v>115</v>
+        <v>115.0</v>
       </c>
       <c r="AU7" t="n">
-        <v>648</v>
+        <v>648.0</v>
       </c>
       <c r="AV7" t="n">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="AW7" t="n">
-        <v>66</v>
+        <v>66.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>116</v>
+        <v>116.0</v>
       </c>
       <c r="AY7" t="n">
-        <v>212</v>
+        <v>212.0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>490</v>
+        <v>490.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>488</v>
+        <v>488.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>5020</v>
+        <v>5020.0</v>
       </c>
       <c r="BC7" t="n">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="BD7" t="n">
-        <v>706</v>
+        <v>706.0</v>
       </c>
       <c r="BE7" t="n">
-        <v>111</v>
+        <v>111.0</v>
       </c>
       <c r="BF7" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="BG7" t="n">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="BH7" t="n">
-        <v>406</v>
+        <v>406.0</v>
       </c>
       <c r="BI7" t="n">
-        <v>98</v>
+        <v>98.0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>709</v>
+        <v>709.0</v>
       </c>
       <c r="BK7" t="n">
-        <v>63</v>
+        <v>63.0</v>
       </c>
       <c r="BL7" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="BM7" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="BN7" t="n">
-        <v>238</v>
+        <v>238.0</v>
       </c>
       <c r="BO7" t="n">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="BP7" t="n">
-        <v>94</v>
+        <v>94.0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>54612</v>
+        <v>54612.0</v>
       </c>
       <c r="BK8" t="n">
-        <v>2766</v>
+        <v>2766.0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BM8" t="n">
-        <v>5017</v>
+        <v>5017.0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>141403</v>
+        <v>141403.0</v>
       </c>
       <c r="C9" t="n">
-        <v>41945</v>
+        <v>41945.0</v>
       </c>
       <c r="D9" t="n">
-        <v>19507</v>
+        <v>19507.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4902</v>
+        <v>4902.0</v>
       </c>
       <c r="F9" t="n">
-        <v>104310</v>
+        <v>104310.0</v>
       </c>
       <c r="G9" t="n">
-        <v>46378</v>
+        <v>46378.0</v>
       </c>
       <c r="H9" t="n">
-        <v>145</v>
+        <v>145.0</v>
       </c>
       <c r="I9" t="n">
-        <v>9644</v>
+        <v>9644.0</v>
       </c>
       <c r="J9" t="n">
-        <v>-1270</v>
+        <v>-1270.0</v>
       </c>
       <c r="K9" t="n">
-        <v>17383</v>
+        <v>17383.0</v>
       </c>
       <c r="L9" t="n">
-        <v>11262</v>
+        <v>11262.0</v>
       </c>
       <c r="M9" t="n">
-        <v>3328</v>
+        <v>3328.0</v>
       </c>
       <c r="N9" t="n">
-        <v>3609</v>
+        <v>3609.0</v>
       </c>
       <c r="O9" t="n">
-        <v>7111</v>
+        <v>7111.0</v>
       </c>
       <c r="P9" t="n">
-        <v>3696</v>
+        <v>3696.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3909</v>
+        <v>3909.0</v>
       </c>
       <c r="R9" t="n">
-        <v>7222</v>
+        <v>7222.0</v>
       </c>
       <c r="S9" t="n">
-        <v>3902</v>
+        <v>3902.0</v>
       </c>
       <c r="T9" t="n">
-        <v>-35786</v>
+        <v>-35786.0</v>
       </c>
       <c r="U9" t="n">
-        <v>2228</v>
+        <v>2228.0</v>
       </c>
       <c r="V9" t="n">
-        <v>5653</v>
+        <v>5653.0</v>
       </c>
       <c r="W9" t="n">
-        <v>4396</v>
+        <v>4396.0</v>
       </c>
       <c r="X9" t="n">
-        <v>3146</v>
+        <v>3146.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>13379</v>
+        <v>13379.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>5672</v>
+        <v>5672.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>10803</v>
+        <v>10803.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>11848</v>
+        <v>11848.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>2798</v>
+        <v>2798.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>11801</v>
+        <v>11801.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>6822</v>
+        <v>6822.0</v>
       </c>
       <c r="AF9" t="n">
-        <v>4381</v>
+        <v>4381.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>10194</v>
+        <v>10194.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>14660</v>
+        <v>14660.0</v>
       </c>
       <c r="AI9" t="n">
-        <v>4708</v>
+        <v>4708.0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2978</v>
+        <v>2978.0</v>
       </c>
       <c r="AK9" t="n">
-        <v>15742</v>
+        <v>15742.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>10591</v>
+        <v>10591.0</v>
       </c>
       <c r="AM9" t="n">
-        <v>41506</v>
+        <v>41506.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>21241</v>
+        <v>21241.0</v>
       </c>
       <c r="AO9" t="n">
-        <v>158461</v>
+        <v>158461.0</v>
       </c>
       <c r="AP9" t="n">
-        <v>44641</v>
+        <v>44641.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>273215</v>
+        <v>273215.0</v>
       </c>
       <c r="AR9" t="n">
-        <v>64932</v>
+        <v>64932.0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2012</v>
+        <v>2012.0</v>
       </c>
       <c r="AT9" t="n">
-        <v>1528</v>
+        <v>1528.0</v>
       </c>
       <c r="AU9" t="n">
-        <v>21940</v>
+        <v>21940.0</v>
       </c>
       <c r="AV9" t="n">
-        <v>4714</v>
+        <v>4714.0</v>
       </c>
       <c r="AW9" t="n">
-        <v>56226</v>
+        <v>56226.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>2331</v>
+        <v>2331.0</v>
       </c>
       <c r="AY9" t="n">
-        <v>6990</v>
+        <v>6990.0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>42146</v>
+        <v>42146.0</v>
       </c>
       <c r="BA9" t="n">
-        <v>32869</v>
+        <v>32869.0</v>
       </c>
       <c r="BB9" t="n">
-        <v>147117</v>
+        <v>147117.0</v>
       </c>
       <c r="BC9" t="n">
-        <v>413257</v>
+        <v>413257.0</v>
       </c>
       <c r="BD9" t="n">
-        <v>62501</v>
+        <v>62501.0</v>
       </c>
       <c r="BE9" t="n">
-        <v>22560</v>
+        <v>22560.0</v>
       </c>
       <c r="BF9" t="n">
-        <v>15288</v>
+        <v>15288.0</v>
       </c>
       <c r="BG9" t="n">
-        <v>21294</v>
+        <v>21294.0</v>
       </c>
       <c r="BH9" t="n">
-        <v>41712</v>
+        <v>41712.0</v>
       </c>
       <c r="BI9" t="n">
-        <v>3578</v>
+        <v>3578.0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>56795</v>
+        <v>56795.0</v>
       </c>
       <c r="BK9" t="n">
-        <v>8923</v>
+        <v>8923.0</v>
       </c>
       <c r="BL9" t="n">
-        <v>5503</v>
+        <v>5503.0</v>
       </c>
       <c r="BM9" t="n">
-        <v>4375</v>
+        <v>4375.0</v>
       </c>
       <c r="BN9" t="n">
-        <v>52539</v>
+        <v>52539.0</v>
       </c>
       <c r="BO9" t="n">
-        <v>8268</v>
+        <v>8268.0</v>
       </c>
       <c r="BP9" t="n">
-        <v>25139</v>
+        <v>25139.0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="n">
-        <v>75209</v>
+        <v>75209.0</v>
       </c>
       <c r="C10" t="n">
-        <v>31892</v>
+        <v>31892.0</v>
       </c>
       <c r="D10" t="n">
-        <v>9586</v>
+        <v>9586.0</v>
       </c>
       <c r="E10" t="n">
-        <v>253</v>
+        <v>253.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>298</v>
+        <v>298.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" t="n">
-        <v>3659</v>
+        <v>3659.0</v>
       </c>
       <c r="L10" t="n">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1274</v>
+        <v>1274.0</v>
       </c>
       <c r="O10" t="n">
-        <v>6447</v>
+        <v>6447.0</v>
       </c>
       <c r="P10" t="n">
-        <v>558</v>
+        <v>558.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1495</v>
+        <v>1495.0</v>
       </c>
       <c r="R10" t="n">
-        <v>257</v>
+        <v>257.0</v>
       </c>
       <c r="S10" t="n">
-        <v>434</v>
+        <v>434.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X10" t="n">
-        <v>395</v>
+        <v>395.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>216</v>
+        <v>216.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>693</v>
+        <v>693.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>2213</v>
+        <v>2213.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AI10" t="n">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1589</v>
+        <v>1589.0</v>
       </c>
       <c r="AL10" t="n">
-        <v>4003</v>
+        <v>4003.0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1540</v>
+        <v>1540.0</v>
       </c>
       <c r="AO10" t="n">
-        <v>68457</v>
+        <v>68457.0</v>
       </c>
       <c r="AP10" t="n">
-        <v>18345</v>
+        <v>18345.0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>55971</v>
+        <v>55971.0</v>
       </c>
       <c r="AR10" t="n">
-        <v>24698</v>
+        <v>24698.0</v>
       </c>
       <c r="AS10" t="n">
-        <v>313</v>
+        <v>313.0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU10" t="n">
-        <v>1031</v>
+        <v>1031.0</v>
       </c>
       <c r="AV10" t="n">
-        <v>662</v>
+        <v>662.0</v>
       </c>
       <c r="AW10" t="n">
-        <v>31545</v>
+        <v>31545.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>607</v>
+        <v>607.0</v>
       </c>
       <c r="AY10" t="n">
-        <v>547</v>
+        <v>547.0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>342</v>
+        <v>342.0</v>
       </c>
       <c r="BA10" t="n">
-        <v>6398</v>
+        <v>6398.0</v>
       </c>
       <c r="BB10" t="n">
-        <v>2182</v>
+        <v>2182.0</v>
       </c>
       <c r="BC10" t="n">
-        <v>3909</v>
+        <v>3909.0</v>
       </c>
       <c r="BD10" t="n">
-        <v>27012</v>
+        <v>27012.0</v>
       </c>
       <c r="BE10" t="n">
-        <v>9458</v>
+        <v>9458.0</v>
       </c>
       <c r="BF10" t="n">
-        <v>4976</v>
+        <v>4976.0</v>
       </c>
       <c r="BG10" t="n">
-        <v>746</v>
+        <v>746.0</v>
       </c>
       <c r="BH10" t="n">
-        <v>4723</v>
+        <v>4723.0</v>
       </c>
       <c r="BI10" t="n">
-        <v>895</v>
+        <v>895.0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL10" t="n">
-        <v>4765</v>
+        <v>4765.0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN10" t="n">
-        <v>26915</v>
+        <v>26915.0</v>
       </c>
       <c r="BO10" t="n">
-        <v>5371</v>
+        <v>5371.0</v>
       </c>
       <c r="BP10" t="n">
-        <v>18829</v>
+        <v>18829.0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="n">
-        <v>66194</v>
+        <v>66194.0</v>
       </c>
       <c r="C11" t="n">
-        <v>10053</v>
+        <v>10053.0</v>
       </c>
       <c r="D11" t="n">
-        <v>9921</v>
+        <v>9921.0</v>
       </c>
       <c r="E11" t="n">
-        <v>4649</v>
+        <v>4649.0</v>
       </c>
       <c r="F11" t="n">
-        <v>104310</v>
+        <v>104310.0</v>
       </c>
       <c r="G11" t="n">
-        <v>46378</v>
+        <v>46378.0</v>
       </c>
       <c r="H11" t="n">
-        <v>145</v>
+        <v>145.0</v>
       </c>
       <c r="I11" t="n">
-        <v>9346</v>
+        <v>9346.0</v>
       </c>
       <c r="J11" t="n">
-        <v>-1270</v>
+        <v>-1270.0</v>
       </c>
       <c r="K11" t="n">
-        <v>13724</v>
+        <v>13724.0</v>
       </c>
       <c r="L11" t="n">
-        <v>11242</v>
+        <v>11242.0</v>
       </c>
       <c r="M11" t="n">
-        <v>3328</v>
+        <v>3328.0</v>
       </c>
       <c r="N11" t="n">
-        <v>2335</v>
+        <v>2335.0</v>
       </c>
       <c r="O11" t="n">
-        <v>664</v>
+        <v>664.0</v>
       </c>
       <c r="P11" t="n">
-        <v>3138</v>
+        <v>3138.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2414</v>
+        <v>2414.0</v>
       </c>
       <c r="R11" t="n">
-        <v>6965</v>
+        <v>6965.0</v>
       </c>
       <c r="S11" t="n">
-        <v>3468</v>
+        <v>3468.0</v>
       </c>
       <c r="T11" t="n">
-        <v>-35786</v>
+        <v>-35786.0</v>
       </c>
       <c r="U11" t="n">
-        <v>2228</v>
+        <v>2228.0</v>
       </c>
       <c r="V11" t="n">
-        <v>5653</v>
+        <v>5653.0</v>
       </c>
       <c r="W11" t="n">
-        <v>4396</v>
+        <v>4396.0</v>
       </c>
       <c r="X11" t="n">
-        <v>2751</v>
+        <v>2751.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>13379</v>
+        <v>13379.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>5456</v>
+        <v>5456.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>10110</v>
+        <v>10110.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>11848</v>
+        <v>11848.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>2794</v>
+        <v>2794.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>9588</v>
+        <v>9588.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>6822</v>
+        <v>6822.0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4381</v>
+        <v>4381.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>10194</v>
+        <v>10194.0</v>
       </c>
       <c r="AH11" t="n">
-        <v>14660</v>
+        <v>14660.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>4658</v>
+        <v>4658.0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2929</v>
+        <v>2929.0</v>
       </c>
       <c r="AK11" t="n">
-        <v>14153</v>
+        <v>14153.0</v>
       </c>
       <c r="AL11" t="n">
-        <v>6588</v>
+        <v>6588.0</v>
       </c>
       <c r="AM11" t="n">
-        <v>41506</v>
+        <v>41506.0</v>
       </c>
       <c r="AN11" t="n">
-        <v>19701</v>
+        <v>19701.0</v>
       </c>
       <c r="AO11" t="n">
-        <v>90004</v>
+        <v>90004.0</v>
       </c>
       <c r="AP11" t="n">
-        <v>26296</v>
+        <v>26296.0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>217244</v>
+        <v>217244.0</v>
       </c>
       <c r="AR11" t="n">
-        <v>40234</v>
+        <v>40234.0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1699</v>
+        <v>1699.0</v>
       </c>
       <c r="AT11" t="n">
-        <v>1528</v>
+        <v>1528.0</v>
       </c>
       <c r="AU11" t="n">
-        <v>20909</v>
+        <v>20909.0</v>
       </c>
       <c r="AV11" t="n">
-        <v>4052</v>
+        <v>4052.0</v>
       </c>
       <c r="AW11" t="n">
-        <v>24681</v>
+        <v>24681.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>1724</v>
+        <v>1724.0</v>
       </c>
       <c r="AY11" t="n">
-        <v>6443</v>
+        <v>6443.0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41804</v>
+        <v>41804.0</v>
       </c>
       <c r="BA11" t="n">
-        <v>26471</v>
+        <v>26471.0</v>
       </c>
       <c r="BB11" t="n">
-        <v>144935</v>
+        <v>144935.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>409348</v>
+        <v>409348.0</v>
       </c>
       <c r="BD11" t="n">
-        <v>35489</v>
+        <v>35489.0</v>
       </c>
       <c r="BE11" t="n">
-        <v>13102</v>
+        <v>13102.0</v>
       </c>
       <c r="BF11" t="n">
-        <v>10312</v>
+        <v>10312.0</v>
       </c>
       <c r="BG11" t="n">
-        <v>20548</v>
+        <v>20548.0</v>
       </c>
       <c r="BH11" t="n">
-        <v>36989</v>
+        <v>36989.0</v>
       </c>
       <c r="BI11" t="n">
-        <v>2683</v>
+        <v>2683.0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>56795</v>
+        <v>56795.0</v>
       </c>
       <c r="BK11" t="n">
-        <v>8923</v>
+        <v>8923.0</v>
       </c>
       <c r="BL11" t="n">
-        <v>738</v>
+        <v>738.0</v>
       </c>
       <c r="BM11" t="n">
-        <v>4375</v>
+        <v>4375.0</v>
       </c>
       <c r="BN11" t="n">
-        <v>25624</v>
+        <v>25624.0</v>
       </c>
       <c r="BO11" t="n">
-        <v>2897</v>
+        <v>2897.0</v>
       </c>
       <c r="BP11" t="n">
-        <v>6310</v>
+        <v>6310.0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="n">
-        <v>1016</v>
+        <v>1016.0</v>
       </c>
       <c r="C12" t="n">
-        <v>449</v>
+        <v>449.0</v>
       </c>
       <c r="D12" t="n">
-        <v>115</v>
+        <v>115.0</v>
       </c>
       <c r="E12" t="n">
-        <v>162</v>
+        <v>162.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1163</v>
+        <v>1163.0</v>
       </c>
       <c r="G12" t="n">
-        <v>487</v>
+        <v>487.0</v>
       </c>
       <c r="H12" t="n">
-        <v>111</v>
+        <v>111.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1407</v>
+        <v>1407.0</v>
       </c>
       <c r="J12" t="n">
-        <v>649</v>
+        <v>649.0</v>
       </c>
       <c r="K12" t="n">
-        <v>1747</v>
+        <v>1747.0</v>
       </c>
       <c r="L12" t="n">
-        <v>629</v>
+        <v>629.0</v>
       </c>
       <c r="M12" t="n">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="N12" t="n">
-        <v>393</v>
+        <v>393.0</v>
       </c>
       <c r="O12" t="n">
-        <v>540</v>
+        <v>540.0</v>
       </c>
       <c r="P12" t="n">
-        <v>374</v>
+        <v>374.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>269</v>
+        <v>269.0</v>
       </c>
       <c r="R12" t="n">
-        <v>510</v>
+        <v>510.0</v>
       </c>
       <c r="S12" t="n">
-        <v>259</v>
+        <v>259.0</v>
       </c>
       <c r="T12" t="n">
-        <v>821</v>
+        <v>821.0</v>
       </c>
       <c r="U12" t="n">
-        <v>237</v>
+        <v>237.0</v>
       </c>
       <c r="V12" t="n">
-        <v>754</v>
+        <v>754.0</v>
       </c>
       <c r="W12" t="n">
-        <v>460</v>
+        <v>460.0</v>
       </c>
       <c r="X12" t="n">
-        <v>269</v>
+        <v>269.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>402</v>
+        <v>402.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>855</v>
+        <v>855.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>759</v>
+        <v>759.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>736</v>
+        <v>736.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>888</v>
+        <v>888.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>842</v>
+        <v>842.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>618</v>
+        <v>618.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1198</v>
+        <v>1198.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1294</v>
+        <v>1294.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>855</v>
+        <v>855.0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>376</v>
+        <v>376.0</v>
       </c>
       <c r="AK12" t="n">
-        <v>545</v>
+        <v>545.0</v>
       </c>
       <c r="AL12" t="n">
-        <v>332</v>
+        <v>332.0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1580</v>
+        <v>1580.0</v>
       </c>
       <c r="AN12" t="n">
-        <v>548</v>
+        <v>548.0</v>
       </c>
       <c r="AO12" t="n">
-        <v>3899</v>
+        <v>3899.0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1107</v>
+        <v>1107.0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>8012</v>
+        <v>8012.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>2301</v>
+        <v>2301.0</v>
       </c>
       <c r="AS12" t="n">
-        <v>286</v>
+        <v>286.0</v>
       </c>
       <c r="AT12" t="n">
-        <v>463</v>
+        <v>463.0</v>
       </c>
       <c r="AU12" t="n">
-        <v>1407</v>
+        <v>1407.0</v>
       </c>
       <c r="AV12" t="n">
-        <v>263</v>
+        <v>263.0</v>
       </c>
       <c r="AW12" t="n">
-        <v>1047</v>
+        <v>1047.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>228</v>
+        <v>228.0</v>
       </c>
       <c r="AY12" t="n">
-        <v>821</v>
+        <v>821.0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4396</v>
+        <v>4396.0</v>
       </c>
       <c r="BA12" t="n">
-        <v>1140</v>
+        <v>1140.0</v>
       </c>
       <c r="BB12" t="n">
-        <v>5731</v>
+        <v>5731.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>267</v>
+        <v>267.0</v>
       </c>
       <c r="BD12" t="n">
-        <v>1545</v>
+        <v>1545.0</v>
       </c>
       <c r="BE12" t="n">
-        <v>645</v>
+        <v>645.0</v>
       </c>
       <c r="BF12" t="n">
-        <v>305</v>
+        <v>305.0</v>
       </c>
       <c r="BG12" t="n">
-        <v>411</v>
+        <v>411.0</v>
       </c>
       <c r="BH12" t="n">
-        <v>2193</v>
+        <v>2193.0</v>
       </c>
       <c r="BI12" t="n">
-        <v>698</v>
+        <v>698.0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>109</v>
+        <v>109.0</v>
       </c>
       <c r="BK12" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="BL12" t="n">
-        <v>1476</v>
+        <v>1476.0</v>
       </c>
       <c r="BM12" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="BN12" t="n">
-        <v>1589</v>
+        <v>1589.0</v>
       </c>
       <c r="BO12" t="n">
-        <v>192</v>
+        <v>192.0</v>
       </c>
       <c r="BP12" t="n">
-        <v>1007</v>
+        <v>1007.0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" t="n">
-        <v>-9163</v>
+        <v>-9163.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-121</v>
+        <v>-121.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-55</v>
+        <v>-55.0</v>
       </c>
       <c r="E13" t="n">
-        <v>-73</v>
+        <v>-73.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>-91</v>
+        <v>-91.0</v>
       </c>
       <c r="J13" t="n">
-        <v>-103</v>
+        <v>-103.0</v>
       </c>
       <c r="K13" t="n">
-        <v>-87</v>
+        <v>-87.0</v>
       </c>
       <c r="L13" t="n">
-        <v>-36</v>
+        <v>-36.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>-19</v>
+        <v>-19.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-37</v>
+        <v>-37.0</v>
       </c>
       <c r="R13" t="n">
-        <v>-75</v>
+        <v>-75.0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>-61</v>
+        <v>-61.0</v>
       </c>
       <c r="U13" t="n">
-        <v>-575</v>
+        <v>-575.0</v>
       </c>
       <c r="V13" t="n">
-        <v>-22</v>
+        <v>-22.0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X13" t="n">
-        <v>-28</v>
+        <v>-28.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-89</v>
+        <v>-89.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-115</v>
+        <v>-115.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-18</v>
+        <v>-18.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-90</v>
+        <v>-90.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-84</v>
+        <v>-84.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-48</v>
+        <v>-48.0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-65</v>
+        <v>-65.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>-219</v>
+        <v>-219.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>-228</v>
+        <v>-228.0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-96</v>
+        <v>-96.0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-86</v>
+        <v>-86.0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-27</v>
+        <v>-27.0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-773</v>
+        <v>-773.0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-33</v>
+        <v>-33.0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-470</v>
+        <v>-470.0</v>
       </c>
       <c r="AP13" t="n">
-        <v>-30</v>
+        <v>-30.0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-1104</v>
+        <v>-1104.0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-1463</v>
+        <v>-1463.0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-75</v>
+        <v>-75.0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-120</v>
+        <v>-120.0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BE13" t="n">
-        <v>-587</v>
+        <v>-587.0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-172</v>
+        <v>-172.0</v>
       </c>
       <c r="BH13" t="n">
-        <v>-35</v>
+        <v>-35.0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN13" t="n">
-        <v>-17</v>
+        <v>-17.0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" t="n">
-        <v>265107</v>
+        <v>265107.0</v>
       </c>
       <c r="C14" t="n">
-        <v>115344</v>
+        <v>115344.0</v>
       </c>
       <c r="D14" t="n">
-        <v>29049</v>
+        <v>29049.0</v>
       </c>
       <c r="E14" t="n">
-        <v>19448</v>
+        <v>19448.0</v>
       </c>
       <c r="F14" t="n">
-        <v>193311</v>
+        <v>193311.0</v>
       </c>
       <c r="G14" t="n">
-        <v>78124</v>
+        <v>78124.0</v>
       </c>
       <c r="H14" t="n">
-        <v>11760</v>
+        <v>11760.0</v>
       </c>
       <c r="I14" t="n">
-        <v>208644</v>
+        <v>208644.0</v>
       </c>
       <c r="J14" t="n">
-        <v>52724</v>
+        <v>52724.0</v>
       </c>
       <c r="K14" t="n">
-        <v>224397</v>
+        <v>224397.0</v>
       </c>
       <c r="L14" t="n">
-        <v>62716</v>
+        <v>62716.0</v>
       </c>
       <c r="M14" t="n">
-        <v>15272</v>
+        <v>15272.0</v>
       </c>
       <c r="N14" t="n">
-        <v>46634</v>
+        <v>46634.0</v>
       </c>
       <c r="O14" t="n">
-        <v>60567</v>
+        <v>60567.0</v>
       </c>
       <c r="P14" t="n">
-        <v>38136</v>
+        <v>38136.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>25749</v>
+        <v>25749.0</v>
       </c>
       <c r="R14" t="n">
-        <v>66502</v>
+        <v>66502.0</v>
       </c>
       <c r="S14" t="n">
-        <v>21287</v>
+        <v>21287.0</v>
       </c>
       <c r="T14" t="n">
-        <v>319082</v>
+        <v>319082.0</v>
       </c>
       <c r="U14" t="n">
-        <v>32241</v>
+        <v>32241.0</v>
       </c>
       <c r="V14" t="n">
-        <v>124304</v>
+        <v>124304.0</v>
       </c>
       <c r="W14" t="n">
-        <v>63035</v>
+        <v>63035.0</v>
       </c>
       <c r="X14" t="n">
-        <v>35511</v>
+        <v>35511.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>50692</v>
+        <v>50692.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>97053</v>
+        <v>97053.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>86780</v>
+        <v>86780.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>104408</v>
+        <v>104408.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>49609</v>
+        <v>49609.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>92851</v>
+        <v>92851.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>88197</v>
+        <v>88197.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>71166</v>
+        <v>71166.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>131325</v>
+        <v>131325.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>194474</v>
+        <v>194474.0</v>
       </c>
       <c r="AI14" t="n">
-        <v>89100</v>
+        <v>89100.0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>42779</v>
+        <v>42779.0</v>
       </c>
       <c r="AK14" t="n">
-        <v>67071</v>
+        <v>67071.0</v>
       </c>
       <c r="AL14" t="n">
-        <v>55016</v>
+        <v>55016.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>180886</v>
+        <v>180886.0</v>
       </c>
       <c r="AN14" t="n">
-        <v>56737</v>
+        <v>56737.0</v>
       </c>
       <c r="AO14" t="n">
-        <v>627086</v>
+        <v>627086.0</v>
       </c>
       <c r="AP14" t="n">
-        <v>139739</v>
+        <v>139739.0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>822455</v>
+        <v>822455.0</v>
       </c>
       <c r="AR14" t="n">
-        <v>290078</v>
+        <v>290078.0</v>
       </c>
       <c r="AS14" t="n">
-        <v>16016</v>
+        <v>16016.0</v>
       </c>
       <c r="AT14" t="n">
-        <v>35430</v>
+        <v>35430.0</v>
       </c>
       <c r="AU14" t="n">
-        <v>100401</v>
+        <v>100401.0</v>
       </c>
       <c r="AV14" t="n">
-        <v>21312</v>
+        <v>21312.0</v>
       </c>
       <c r="AW14" t="n">
-        <v>192196</v>
+        <v>192196.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>21590</v>
+        <v>21590.0</v>
       </c>
       <c r="AY14" t="n">
-        <v>38494</v>
+        <v>38494.0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>160382</v>
+        <v>160382.0</v>
       </c>
       <c r="BA14" t="n">
-        <v>101707</v>
+        <v>101707.0</v>
       </c>
       <c r="BB14" t="n">
-        <v>450619</v>
+        <v>450619.0</v>
       </c>
       <c r="BC14" t="n">
-        <v>455145</v>
+        <v>455145.0</v>
       </c>
       <c r="BD14" t="n">
-        <v>160406</v>
+        <v>160406.0</v>
       </c>
       <c r="BE14" t="n">
-        <v>69019</v>
+        <v>69019.0</v>
       </c>
       <c r="BF14" t="n">
-        <v>80404</v>
+        <v>80404.0</v>
       </c>
       <c r="BG14" t="n">
-        <v>45210</v>
+        <v>45210.0</v>
       </c>
       <c r="BH14" t="n">
-        <v>182232</v>
+        <v>182232.0</v>
       </c>
       <c r="BI14" t="n">
-        <v>33105</v>
+        <v>33105.0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>628194</v>
+        <v>628194.0</v>
       </c>
       <c r="BK14" t="n">
-        <v>252328</v>
+        <v>252328.0</v>
       </c>
       <c r="BL14" t="n">
-        <v>83639</v>
+        <v>83639.0</v>
       </c>
       <c r="BM14" t="n">
-        <v>146225</v>
+        <v>146225.0</v>
       </c>
       <c r="BN14" t="n">
-        <v>168457</v>
+        <v>168457.0</v>
       </c>
       <c r="BO14" t="n">
-        <v>31169</v>
+        <v>31169.0</v>
       </c>
       <c r="BP14" t="n">
-        <v>131271</v>
+        <v>131271.0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>53656</v>
+        <v>53656.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="n">
-        <v>6083373</v>
+        <v>6083373.0</v>
       </c>
       <c r="C15" t="n">
-        <v>6422856</v>
+        <v>6422856.0</v>
       </c>
       <c r="D15" t="n">
-        <v>941887</v>
+        <v>941887.0</v>
       </c>
       <c r="E15" t="n">
-        <v>146907</v>
+        <v>146907.0</v>
       </c>
       <c r="F15" t="n">
-        <v>70370</v>
+        <v>70370.0</v>
       </c>
       <c r="G15" t="n">
-        <v>56055</v>
+        <v>56055.0</v>
       </c>
       <c r="H15" t="n">
-        <v>35080</v>
+        <v>35080.0</v>
       </c>
       <c r="I15" t="n">
-        <v>676626</v>
+        <v>676626.0</v>
       </c>
       <c r="J15" t="n">
-        <v>232800</v>
+        <v>232800.0</v>
       </c>
       <c r="K15" t="n">
-        <v>1284075</v>
+        <v>1284075.0</v>
       </c>
       <c r="L15" t="n">
-        <v>180180</v>
+        <v>180180.0</v>
       </c>
       <c r="M15" t="n">
-        <v>19165</v>
+        <v>19165.0</v>
       </c>
       <c r="N15" t="n">
-        <v>663324</v>
+        <v>663324.0</v>
       </c>
       <c r="O15" t="n">
-        <v>1812183</v>
+        <v>1812183.0</v>
       </c>
       <c r="P15" t="n">
-        <v>554059</v>
+        <v>554059.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>424526</v>
+        <v>424526.0</v>
       </c>
       <c r="R15" t="n">
-        <v>205613</v>
+        <v>205613.0</v>
       </c>
       <c r="S15" t="n">
-        <v>208523</v>
+        <v>208523.0</v>
       </c>
       <c r="T15" t="n">
-        <v>26144</v>
+        <v>26144.0</v>
       </c>
       <c r="U15" t="n">
-        <v>92651</v>
+        <v>92651.0</v>
       </c>
       <c r="V15" t="n">
-        <v>97022</v>
+        <v>97022.0</v>
       </c>
       <c r="W15" t="n">
-        <v>100745</v>
+        <v>100745.0</v>
       </c>
       <c r="X15" t="n">
-        <v>150491</v>
+        <v>150491.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>105440</v>
+        <v>105440.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>506552</v>
+        <v>506552.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>693703</v>
+        <v>693703.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>147041</v>
+        <v>147041.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>117467</v>
+        <v>117467.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>790496</v>
+        <v>790496.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>185009</v>
+        <v>185009.0</v>
       </c>
       <c r="AF15" t="n">
-        <v>265913</v>
+        <v>265913.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>499854</v>
+        <v>499854.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>209249</v>
+        <v>209249.0</v>
       </c>
       <c r="AI15" t="n">
-        <v>347083</v>
+        <v>347083.0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>133949</v>
+        <v>133949.0</v>
       </c>
       <c r="AK15" t="n">
-        <v>834202</v>
+        <v>834202.0</v>
       </c>
       <c r="AL15" t="n">
-        <v>556537</v>
+        <v>556537.0</v>
       </c>
       <c r="AM15" t="n">
-        <v>147078</v>
+        <v>147078.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>607614</v>
+        <v>607614.0</v>
       </c>
       <c r="AO15" t="n">
-        <v>8808155</v>
+        <v>8808155.0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2828619</v>
+        <v>2828619.0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15759156</v>
+        <v>1.5759156E7</v>
       </c>
       <c r="AR15" t="n">
-        <v>3674692</v>
+        <v>3674692.0</v>
       </c>
       <c r="AS15" t="n">
-        <v>60895</v>
+        <v>60895.0</v>
       </c>
       <c r="AT15" t="n">
-        <v>67528</v>
+        <v>67528.0</v>
       </c>
       <c r="AU15" t="n">
-        <v>832185</v>
+        <v>832185.0</v>
       </c>
       <c r="AV15" t="n">
-        <v>414051</v>
+        <v>414051.0</v>
       </c>
       <c r="AW15" t="n">
-        <v>4654397</v>
+        <v>4654397.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>167745</v>
+        <v>167745.0</v>
       </c>
       <c r="AY15" t="n">
-        <v>181725</v>
+        <v>181725.0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>249984</v>
+        <v>249984.0</v>
       </c>
       <c r="BA15" t="n">
-        <v>701864</v>
+        <v>701864.0</v>
       </c>
       <c r="BB15" t="n">
-        <v>1124207</v>
+        <v>1124207.0</v>
       </c>
       <c r="BC15" t="n">
-        <v>391661</v>
+        <v>391661.0</v>
       </c>
       <c r="BD15" t="n">
-        <v>1620625</v>
+        <v>1620625.0</v>
       </c>
       <c r="BE15" t="n">
-        <v>589652</v>
+        <v>589652.0</v>
       </c>
       <c r="BF15" t="n">
-        <v>517025</v>
+        <v>517025.0</v>
       </c>
       <c r="BG15" t="n">
-        <v>335754</v>
+        <v>335754.0</v>
       </c>
       <c r="BH15" t="n">
-        <v>4089460</v>
+        <v>4089460.0</v>
       </c>
       <c r="BI15" t="n">
-        <v>850968</v>
+        <v>850968.0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>5479282</v>
+        <v>5479282.0</v>
       </c>
       <c r="BK15" t="n">
-        <v>4270759</v>
+        <v>4270759.0</v>
       </c>
       <c r="BL15" t="n">
-        <v>2321981</v>
+        <v>2321981.0</v>
       </c>
       <c r="BM15" t="n">
-        <v>1839563</v>
+        <v>1839563.0</v>
       </c>
       <c r="BN15" t="n">
-        <v>2604866</v>
+        <v>2604866.0</v>
       </c>
       <c r="BO15" t="n">
-        <v>927199</v>
+        <v>927199.0</v>
       </c>
       <c r="BP15" t="n">
-        <v>3969881</v>
+        <v>3969881.0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6571677</v>
+        <v>6571677.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>